--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2455" uniqueCount="541">
   <si>
     <t>CourseID</t>
   </si>
@@ -559,1102 +559,1084 @@
     <t>William  Heckman,Kelly  Bird,David B Bean</t>
   </si>
   <si>
+    <t>Paula Mia  Campo,Della L Adams-meyer</t>
+  </si>
+  <si>
+    <t>Theresa  Mansor,John  Toland</t>
+  </si>
+  <si>
+    <t>Amy  Smith,Allison M Devinney</t>
+  </si>
+  <si>
+    <t>David B Bean,Paula Mia  Campo</t>
+  </si>
+  <si>
+    <t>Evelyn  Perez,Peter  Campo</t>
+  </si>
+  <si>
+    <t>Catherine  Hackney,Donna Marie  Shea</t>
+  </si>
+  <si>
+    <t>Virginia U Millar,Elizabeth  Morales</t>
+  </si>
+  <si>
+    <t>John  Toland</t>
+  </si>
+  <si>
+    <t>David B Bean,Della L Adams-meyer</t>
+  </si>
+  <si>
+    <t>Brittany M Smith,Adhan  Perez</t>
+  </si>
+  <si>
+    <t>Ericka  Chapman,Matthew  Freund</t>
+  </si>
+  <si>
+    <t>Nicole  Lindsay,Joan  Kulbok</t>
+  </si>
+  <si>
+    <t>Lourdes  Vidal-turner,Robert  Newman</t>
+  </si>
+  <si>
+    <t>Sarah M Dickey,Amber  Fenton</t>
+  </si>
+  <si>
+    <t>William  Heckman,Kelly  Bird</t>
+  </si>
+  <si>
+    <t>Salma  Hussein,Susan  Biglin</t>
+  </si>
+  <si>
+    <t>John  Toland,Paula  Dever</t>
+  </si>
+  <si>
+    <t>Evelyn  Perez,Adhan  Perez</t>
+  </si>
+  <si>
+    <t>Crystal A Aikens,Ericka  Chapman</t>
+  </si>
+  <si>
+    <t>Paula  Dever,Brittany M Smith</t>
+  </si>
+  <si>
+    <t>Adhan  Perez,Crystal A Aikens</t>
+  </si>
+  <si>
+    <t>Kelly  Bird,Paula Mia  Campo</t>
+  </si>
+  <si>
+    <t>Della L Adams-meyer,Cheryl  Mendez</t>
+  </si>
+  <si>
+    <t>Brittany M Smith,Evelyn  Perez</t>
+  </si>
+  <si>
+    <t>Crystal A Aikens,Gavin  Powell</t>
+  </si>
+  <si>
+    <t>Susan  Rosenberg,Thomas  Ward</t>
+  </si>
+  <si>
+    <t>Shaylese  Lassiter,Megan  Davis-white</t>
+  </si>
+  <si>
+    <t>Monica  Thomas,Allison M Devinney</t>
+  </si>
+  <si>
+    <t>Cheryl J Alessandrine,Randi  Gupton</t>
+  </si>
+  <si>
+    <t>Megan  Davis-white,Katie L Marakos</t>
+  </si>
+  <si>
+    <t>Cheryl J Alessandrine,Kathy N Lewis</t>
+  </si>
+  <si>
+    <t>Susan  Biglin,Barbara  Grandy</t>
+  </si>
+  <si>
+    <t>Gina  Walk,Shaylese  Lassiter</t>
+  </si>
+  <si>
+    <t>Megan  Davis-white,Sarah M Dickey</t>
+  </si>
+  <si>
+    <t>Randi  Gupton,Chalon  Eberhart</t>
+  </si>
+  <si>
+    <t>Teonnah  Thompson,Kristina  Santoro</t>
+  </si>
+  <si>
+    <t>Juanita  Hyman,Kathy N Lewis</t>
+  </si>
+  <si>
+    <t>Salma  Hussein,Jennifer  Fisher</t>
+  </si>
+  <si>
+    <t>Susan  Biglin,Barbara  Shumski</t>
+  </si>
+  <si>
+    <t>Barbara  Grandy,Lauren  Kaplan</t>
+  </si>
+  <si>
+    <t>Adhan  Perez,Crystal A Aikens,Beth Ann  Daley</t>
+  </si>
+  <si>
+    <t>Ericka  Chapman,Matthew  Freund,Gavin  Powell</t>
+  </si>
+  <si>
+    <t>Evelyn  Perez,Susan  Rosenberg</t>
+  </si>
+  <si>
+    <t>Gavin  Powell,Susan  Rosenberg</t>
+  </si>
+  <si>
+    <t>Jason D Little,Katie L Marakos</t>
+  </si>
+  <si>
+    <t>Allison M Devinney,Tracey  Captan</t>
+  </si>
+  <si>
+    <t>Della L Adams-meyer,Theresa  Mansor</t>
+  </si>
+  <si>
+    <t>Cheryl  Mendez,Beth Ann  Daley</t>
+  </si>
+  <si>
+    <t>Kelly  Bird,Antoinette  Gray</t>
+  </si>
+  <si>
+    <t>Amy  Smith,Tracey  Captan</t>
+  </si>
+  <si>
+    <t>Nina  Ficca,Rosalba  Alarcon</t>
+  </si>
+  <si>
+    <t>Peter  Campo,Chalon  Eberhart,Teonnah  Thompson</t>
+  </si>
+  <si>
+    <t>Beth Ann  Daley,Gavin  Powell,Antoinette  Gray</t>
+  </si>
+  <si>
+    <t>Sarah M Dickey,Cheryl J Alessandrine</t>
+  </si>
+  <si>
+    <t>Randi  Gupton,Peter  Campo</t>
+  </si>
+  <si>
+    <t>Chalon  Eberhart,Teonnah  Thompson</t>
+  </si>
+  <si>
+    <t>Kristina  Santoro,Kathy N Lewis</t>
+  </si>
+  <si>
+    <t>Danielle  Newsome,Julie  Land</t>
+  </si>
+  <si>
+    <t>Charlotte  Phillip-clarke,Barbara  Grandy</t>
+  </si>
+  <si>
+    <t>Regina T Gordon,Lauren  Kaplan</t>
+  </si>
+  <si>
+    <t>Thomas  Ward,Leslie  Harvey</t>
+  </si>
+  <si>
+    <t>Donna Marie  Shea,Amy L Williams</t>
+  </si>
+  <si>
+    <t>Antoinette  Gray,Monica  Thomas</t>
+  </si>
+  <si>
+    <t>Tracey  Captan,Randi  Gupton</t>
+  </si>
+  <si>
+    <t>Gionna A Botto-malecki,Tiffany  Jacobs,Virginia U Millar</t>
+  </si>
+  <si>
+    <t>Caroline  Mccabe,Richard  Prince</t>
+  </si>
+  <si>
+    <t>Tiffany  Jacobs,Alyssa  Scull</t>
+  </si>
+  <si>
+    <t>Juanita  Hyman</t>
+  </si>
+  <si>
+    <t>Ericka  Chapman,Matthew  Freund,Gina  Walk</t>
+  </si>
+  <si>
+    <t>Monica  Thomas,Amy  Smith</t>
+  </si>
+  <si>
+    <t>Allison M Devinney,Caroline  Mccabe</t>
+  </si>
+  <si>
+    <t>Chalon  Eberhart,Teonnah  Thompson,Juanita  Hyman</t>
+  </si>
+  <si>
+    <t>Kathy N Lewis,Leslie  Harvey</t>
+  </si>
+  <si>
+    <t>Donna Marie  Shea,Carol H Buzby</t>
+  </si>
+  <si>
+    <t>Amber  Fenton,Salma  Hussein</t>
+  </si>
+  <si>
+    <t>Kathryn  Howard,Richard  Prince</t>
+  </si>
+  <si>
+    <t>Kathryn  Howard,Susan  Biglin</t>
+  </si>
+  <si>
+    <t>Latisha  Edwards,Leslie  Harvey</t>
+  </si>
+  <si>
+    <t>Holly  Lindner,Karissa  Ksiazek</t>
+  </si>
+  <si>
+    <t>Tiffany  Smith,Alison  Bell</t>
+  </si>
+  <si>
+    <t>Gionna A Botto-malecki,Tiffany  Jacobs</t>
+  </si>
+  <si>
+    <t>Melissa  Wargo-brown,Kay  Maltz</t>
+  </si>
+  <si>
+    <t>Betsy  Nieves,Kimberly  Ailes</t>
+  </si>
+  <si>
+    <t>Chalon  Eberhart,Sharon  Mclean,Kathryn  Howard</t>
+  </si>
+  <si>
+    <t>Richard  Prince,Barbara  Shumski</t>
+  </si>
+  <si>
+    <t>Beth Ann  Daley,Ericka  Chapman</t>
+  </si>
+  <si>
+    <t>Antoinette  Gray,Susan  Rosenberg</t>
+  </si>
+  <si>
+    <t>Megan  Davis-white,Amy  Smith</t>
+  </si>
+  <si>
+    <t>Jennifer  Fisher,Danielle  Newsome</t>
+  </si>
+  <si>
+    <t>Latisha  Edwards,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Donna Marie  Shea,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Karissa  Ksiazek,Alyssa  Scull</t>
+  </si>
+  <si>
+    <t>Melissa  Wargo-brown,Kimberly  Shick,Kimberly  Ailes</t>
+  </si>
+  <si>
+    <t>Lourdes  Vidal-turner,Christina  Gonzales</t>
+  </si>
+  <si>
+    <t>Robert  Newman,Elizabeth  Tegler,Pamela  Buzby Rosenberg</t>
+  </si>
+  <si>
+    <t>Susan  Rosenberg,Gina  Walk,Monica  Thomas</t>
+  </si>
+  <si>
+    <t>Katie L Marakos,Amy  Smith</t>
+  </si>
+  <si>
+    <t>Cheryl J Alessandrine,Chalon  Eberhart</t>
+  </si>
+  <si>
+    <t>Latisha  Edwards,Leslie  Harvey,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Lauren  Kaplan,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>Tiffany  Jacobs,Georgiana  Murnaghan</t>
+  </si>
+  <si>
+    <t>Elizabeth  Morales,Nicole  Lindsay,Karissa  Ksiazek</t>
+  </si>
+  <si>
+    <t>Kimberly  Ailes,Jiovanna  Debella</t>
+  </si>
+  <si>
+    <t>Riana  Cordoba,Deborah  Tormey</t>
+  </si>
+  <si>
+    <t>William  Heckman,Theresa  Mansor</t>
+  </si>
+  <si>
+    <t>Evelyn  Perez,Allison M Devinney</t>
+  </si>
+  <si>
+    <t>Teonnah  Thompson,Amber  Fenton</t>
+  </si>
+  <si>
+    <t>Danielle  Newsome,Charlotte  Phillip-clarke</t>
+  </si>
+  <si>
+    <t>Regina T Gordon,Gary  Elwell</t>
+  </si>
+  <si>
+    <t>Tiffany  Jacobs,Virginia U Millar</t>
+  </si>
+  <si>
+    <t>Joyce  Sidibe Williams,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>Regina T Gordon,Leslie  Harvey,Gary  Elwell</t>
+  </si>
+  <si>
+    <t>Gionna A Botto-malecki,Kimberly  Shick</t>
+  </si>
+  <si>
+    <t>Betsy  Nieves,Christy  Feehan</t>
+  </si>
+  <si>
+    <t>Robert  Newman,Elizabeth  Tegler</t>
+  </si>
+  <si>
+    <t>Beth Ann  Daley,Matthew  Freund</t>
+  </si>
+  <si>
+    <t>Antoinette  Gray,Megan  Davis-white</t>
+  </si>
+  <si>
+    <t>Amy  Smith,Peter  Campo</t>
+  </si>
+  <si>
+    <t>Chalon  Eberhart,Kristina  Santoro</t>
+  </si>
+  <si>
+    <t>Juanita  Hyman,Danielle  Newsome</t>
+  </si>
+  <si>
+    <t>Amy L Williams,Kimberly  Shick</t>
+  </si>
+  <si>
+    <t>Alison  Bell,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Jennifer  Handson,Kimberly  Santoro</t>
+  </si>
+  <si>
+    <t>Thomas  Ward,Gina  Walk</t>
+  </si>
+  <si>
+    <t>Jason D Little,Katie L Marakos,Cheryl J Alessandrine</t>
+  </si>
+  <si>
+    <t>Caroline  Mccabe,Kristina  Santoro</t>
+  </si>
+  <si>
+    <t>Melissa  Wargo-brown,Charlotte  Nagele Boles</t>
+  </si>
+  <si>
+    <t>Anthony  Nistico,Jonathan  Lelli</t>
+  </si>
+  <si>
     <t>Cheryl  Mendez,John  Toland</t>
   </si>
   <si>
-    <t>Evelyn  Perez,Adhan  Perez</t>
-  </si>
-  <si>
-    <t>Paula Mia  Campo,Brittany M Smith</t>
-  </si>
-  <si>
-    <t>Allison M Devinney,Kristina  Santoro</t>
-  </si>
-  <si>
-    <t>Barbara  Grandy,Gionna A Botto-malecki</t>
-  </si>
-  <si>
-    <t>Virginia U Millar,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Betsy  Nieves,Robert  Newman</t>
-  </si>
-  <si>
-    <t>Theresa  Mansor</t>
-  </si>
-  <si>
-    <t>Della L Adams-meyer,John  Toland</t>
-  </si>
-  <si>
-    <t>William  Heckman,Kelly  Bird</t>
-  </si>
-  <si>
-    <t>David B Bean,Paula Mia  Campo</t>
-  </si>
-  <si>
-    <t>Della L Adams-meyer,Theresa  Mansor</t>
-  </si>
-  <si>
-    <t>Susan  Rosenberg,Thomas  Ward</t>
+    <t>Crystal A Aikens,Beth Ann  Daley</t>
+  </si>
+  <si>
+    <t>Gavin  Powell,Antoinette  Gray</t>
+  </si>
+  <si>
+    <t>Megan  Davis-white,Monica  Thomas</t>
+  </si>
+  <si>
+    <t>Tracey  Captan,Sarah M Dickey</t>
+  </si>
+  <si>
+    <t>Peter  Campo,Caroline  Mccabe</t>
+  </si>
+  <si>
+    <t>Kristina  Santoro,Amber  Fenton</t>
+  </si>
+  <si>
+    <t>Salma  Hussein,Sharon  Mclean</t>
+  </si>
+  <si>
+    <t>Kathryn  Howard,Jennifer  Fisher</t>
+  </si>
+  <si>
+    <t>Richard  Prince,Susan  Biglin</t>
+  </si>
+  <si>
+    <t>Barbara  Shumski,Charlotte  Phillip-clarke</t>
+  </si>
+  <si>
+    <t>Barbara  Grandy,Latisha  Edwards</t>
+  </si>
+  <si>
+    <t>Regina T Gordon,Leslie  Harvey</t>
+  </si>
+  <si>
+    <t>Carol H Buzby,Lauren  Kaplan</t>
+  </si>
+  <si>
+    <t>Gary  Elwell,Alison  Bell</t>
+  </si>
+  <si>
+    <t>Virginia U Millar,Georgiana  Murnaghan</t>
+  </si>
+  <si>
+    <t>Elizabeth  Morales,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Nicole  Lindsay,Karissa  Ksiazek</t>
+  </si>
+  <si>
+    <t>Melissa  Wargo-brown,Alyssa  Scull,Charlotte  Nagele Boles</t>
+  </si>
+  <si>
+    <t>Joan  Kulbok,Kay  Maltz,Amy L Williams</t>
+  </si>
+  <si>
+    <t>Kimberly  Shick,Betsy  Nieves</t>
+  </si>
+  <si>
+    <t>Kimberly  Ailes,Lourdes  Vidal-turner</t>
+  </si>
+  <si>
+    <t>Jiovanna  Debella,Christina  Gonzales</t>
+  </si>
+  <si>
+    <t>Pamela  Buzby Rosenberg,Nina  Ficca</t>
+  </si>
+  <si>
+    <t>Brandi  Sheridan,Francesca L Mancuso,Rosalba  Alarcon</t>
+  </si>
+  <si>
+    <t>Riana  Cordoba,Kate  Mccabe</t>
+  </si>
+  <si>
+    <t>Deborah  Tormey,John  Dattalo</t>
+  </si>
+  <si>
+    <t>Jennifer  Handson,Anthony  Nistico</t>
+  </si>
+  <si>
+    <t>Andrea  Vreeland,Christy  Feehan,Jonathan  Lelli</t>
+  </si>
+  <si>
+    <t>Michael  Miltenberger,Kimberly  Santoro</t>
+  </si>
+  <si>
+    <t>Joyce  Sidibe Williams,Tiffany  Smith,Gary  Elwell</t>
+  </si>
+  <si>
+    <t>Alison  Bell,Gionna A Botto-malecki,Tiffany  Jacobs</t>
+  </si>
+  <si>
+    <t>Virginia U Millar,Georgiana  Murnaghan,Elizabeth  Morales</t>
+  </si>
+  <si>
+    <t>Holly  Lindner,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Charlotte  Nagele Boles,Christina  Gonzales</t>
+  </si>
+  <si>
+    <t>Theresa  Mansor,Cheryl  Mendez</t>
+  </si>
+  <si>
+    <t>Matthew  Freund,Gavin  Powell</t>
   </si>
   <si>
     <t>Monica  Thomas,Jason D Little</t>
   </si>
   <si>
-    <t>Thomas  Ward,Tracey  Captan</t>
-  </si>
-  <si>
-    <t>William  Heckman,Della L Adams-meyer</t>
-  </si>
-  <si>
-    <t>Theresa  Mansor,Brittany M Smith</t>
-  </si>
-  <si>
-    <t>Sarah M Dickey,Randi  Gupton</t>
-  </si>
-  <si>
-    <t>Paula  Dever,Adhan  Perez</t>
-  </si>
-  <si>
-    <t>Crystal A Aikens,Beth Ann  Daley</t>
-  </si>
-  <si>
-    <t>Gavin  Powell,Antoinette  Gray</t>
-  </si>
-  <si>
-    <t>Ericka  Chapman,Thomas  Ward</t>
-  </si>
-  <si>
-    <t>David B Bean,Della L Adams-meyer</t>
-  </si>
-  <si>
-    <t>Theresa  Mansor,Cheryl  Mendez</t>
-  </si>
-  <si>
-    <t>John  Toland,Paula  Dever</t>
+    <t>Randi  Gupton,Caroline  Mccabe</t>
+  </si>
+  <si>
+    <t>Amber  Fenton,Juanita  Hyman</t>
+  </si>
+  <si>
+    <t>Kathy N Lewis,Salma  Hussein</t>
+  </si>
+  <si>
+    <t>Sharon  Mclean,Kathryn  Howard</t>
+  </si>
+  <si>
+    <t>Julie  Land,Richard  Prince</t>
+  </si>
+  <si>
+    <t>Latisha  Edwards,Regina T Gordon</t>
+  </si>
+  <si>
+    <t>Leslie  Harvey,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Lauren  Kaplan,Joyce  Sidibe Williams</t>
+  </si>
+  <si>
+    <t>Tiffany  Smith,Gary  Elwell</t>
+  </si>
+  <si>
+    <t>Alison  Bell,Gionna A Botto-malecki</t>
+  </si>
+  <si>
+    <t>Georgiana  Murnaghan,Elizabeth  Morales</t>
+  </si>
+  <si>
+    <t>Karissa  Ksiazek,Melissa  Wargo-brown</t>
+  </si>
+  <si>
+    <t>Alyssa  Scull,Charlotte  Nagele Boles</t>
+  </si>
+  <si>
+    <t>Joan  Kulbok,Kay  Maltz</t>
+  </si>
+  <si>
+    <t>Lourdes  Vidal-turner,Jiovanna  Debella</t>
+  </si>
+  <si>
+    <t>Christina  Gonzales,Robert  Newman</t>
+  </si>
+  <si>
+    <t>Elizabeth  Tegler,Pamela  Buzby Rosenberg</t>
+  </si>
+  <si>
+    <t>Nina  Ficca,Brandi  Sheridan</t>
+  </si>
+  <si>
+    <t>Francesca L Mancuso,Rosalba  Alarcon</t>
+  </si>
+  <si>
+    <t>Andrea  Vreeland,Christy  Feehan</t>
+  </si>
+  <si>
+    <t>Jonathan  Lelli,Michael  Miltenberger,Kimberly  Santoro</t>
+  </si>
+  <si>
+    <t>Catherine  Hackney,Donna Marie  Shea,Carol H Buzby</t>
+  </si>
+  <si>
+    <t>Paula Mia  Campo,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Charlotte  Phillip-clarke,Regina T Gordon</t>
+  </si>
+  <si>
+    <t>Carol H Buzby,Joyce  Sidibe Williams</t>
+  </si>
+  <si>
+    <t>Gina  Walk,Monica  Thomas</t>
+  </si>
+  <si>
+    <t>Katie L Marakos,Tracey  Captan</t>
+  </si>
+  <si>
+    <t>Caroline  Mccabe,Amber  Fenton</t>
+  </si>
+  <si>
+    <t>Juanita  Hyman,Sharon  Mclean</t>
+  </si>
+  <si>
+    <t>Julie  Land,Carol H Buzby</t>
+  </si>
+  <si>
+    <t>Melissa  Wargo-brown,Alyssa  Scull</t>
+  </si>
+  <si>
+    <t>Charlotte  Nagele Boles,Joan  Kulbok</t>
+  </si>
+  <si>
+    <t>Rosalba  Alarcon,Riana  Cordoba</t>
+  </si>
+  <si>
+    <t>Kate  Mccabe,Deborah  Tormey</t>
+  </si>
+  <si>
+    <t>John  Dattalo,Jennifer  Handson</t>
+  </si>
+  <si>
+    <t>Anthony  Nistico,Andrea  Vreeland</t>
+  </si>
+  <si>
+    <t>Georgiana  Murnaghan,Elizabeth  Morales,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Shaylese  Lassiter,Jason D Little</t>
+  </si>
+  <si>
+    <t>Cheryl J Alessandrine,Peter  Campo</t>
+  </si>
+  <si>
+    <t>Caroline  Mccabe,Teonnah  Thompson</t>
+  </si>
+  <si>
+    <t>Amber  Fenton,Kathy N Lewis</t>
+  </si>
+  <si>
+    <t>Kathryn  Howard,Danielle  Newsome</t>
+  </si>
+  <si>
+    <t>Susan  Biglin,Carol H Buzby</t>
+  </si>
+  <si>
+    <t>Joyce  Sidibe Williams,Alison  Bell</t>
+  </si>
+  <si>
+    <t>Georgiana  Murnaghan,Joan  Kulbok</t>
+  </si>
+  <si>
+    <t>Alison  Bell,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>William  Heckman,David B Bean</t>
+  </si>
+  <si>
+    <t>Kimberly  Shick,Jiovanna  Debella</t>
+  </si>
+  <si>
+    <t>Riana  Cordoba,Anthony  Nistico</t>
+  </si>
+  <si>
+    <t>Gary  Elwell,Elizabeth  Morales</t>
+  </si>
+  <si>
+    <t>Tracey  Captan,Cheryl J Alessandrine</t>
+  </si>
+  <si>
+    <t>Christy  Feehan,Jonathan  Lelli</t>
+  </si>
+  <si>
+    <t>Gionna A Botto-malecki,Georgiana  Murnaghan</t>
+  </si>
+  <si>
+    <t>Jiovanna  Debella,John  Dattalo</t>
+  </si>
+  <si>
+    <t>Brandi  Sheridan,Riana  Cordoba</t>
+  </si>
+  <si>
+    <t>Jonathan  Lelli,Kimberly  Santoro</t>
+  </si>
+  <si>
+    <t>Cheryl  Mendez,Paula  Dever</t>
+  </si>
+  <si>
+    <t>Adhan  Perez,Beth Ann  Daley</t>
+  </si>
+  <si>
+    <t>Monica  Thomas,Tracey  Captan,Caroline  Mccabe</t>
+  </si>
+  <si>
+    <t>Kristina  Santoro,Juanita  Hyman</t>
+  </si>
+  <si>
+    <t>Danielle  Newsome,Richard  Prince</t>
+  </si>
+  <si>
+    <t>Regina T Gordon,Carol H Buzby</t>
+  </si>
+  <si>
+    <t>Lauren  Kaplan,Tiffany  Jacobs</t>
+  </si>
+  <si>
+    <t>Kay  Maltz,Betsy  Nieves</t>
+  </si>
+  <si>
+    <t>Elizabeth  Tegler,Deborah  Tormey</t>
+  </si>
+  <si>
+    <t>John  Dattalo,Christy  Feehan</t>
+  </si>
+  <si>
+    <t>Jonathan  Lelli,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Joyce  Sidibe Williams,Gary  Elwell</t>
+  </si>
+  <si>
+    <t>Virginia U Millar,Elizabeth  Morales,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Nicole  Lindsay,Kay  Maltz</t>
+  </si>
+  <si>
+    <t>Kimberly  Ailes,Robert  Newman</t>
+  </si>
+  <si>
+    <t>Amy L Williams,Pamela  Buzby Rosenberg</t>
+  </si>
+  <si>
+    <t>Nina  Ficca,Jennifer  Handson</t>
+  </si>
+  <si>
+    <t>Carol H Buzby,Gary  Elwell</t>
+  </si>
+  <si>
+    <t>Julie  Land,Barbara  Shumski</t>
+  </si>
+  <si>
+    <t>Leslie  Harvey,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Charlotte  Nagele Boles,Michael  Miltenberger</t>
+  </si>
+  <si>
+    <t>Francesca L Mancuso,Christy  Feehan</t>
+  </si>
+  <si>
+    <t>Gina  Walk,Shaylese  Lassiter,Megan  Davis-white</t>
+  </si>
+  <si>
+    <t>Sarah M Dickey,Caroline  Mccabe</t>
+  </si>
+  <si>
+    <t>Chalon  Eberhart,Amber  Fenton</t>
+  </si>
+  <si>
+    <t>Salma  Hussein,Kathryn  Howard</t>
+  </si>
+  <si>
+    <t>Joan  Kulbok,Francesca L Mancuso</t>
+  </si>
+  <si>
+    <t>Donna Marie  Shea,Tiffany  Jacobs,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Richard  Prince,Charlotte  Phillip-clarke</t>
+  </si>
+  <si>
+    <t>Latisha  Edwards,Donna Marie  Shea,Gary  Elwell</t>
+  </si>
+  <si>
+    <t>Nicole  Lindsay,Charlotte  Nagele Boles</t>
+  </si>
+  <si>
+    <t>Brandi  Sheridan,Jennifer  Handson</t>
+  </si>
+  <si>
+    <t>Joyce  Sidibe Williams,Tiffany  Smith,Alison  Bell</t>
+  </si>
+  <si>
+    <t>Georgiana  Murnaghan,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Kimberly  Shick,Betsy  Nieves,Lourdes  Vidal-turner</t>
+  </si>
+  <si>
+    <t>Pamela  Buzby Rosenberg,Francesca L Mancuso</t>
+  </si>
+  <si>
+    <t>Anthony  Nistico,Donna Marie  Shea</t>
+  </si>
+  <si>
+    <t>Lauren  Kaplan,Alison  Bell</t>
+  </si>
+  <si>
+    <t>Gionna A Botto-malecki,Virginia U Millar</t>
+  </si>
+  <si>
+    <t>Elizabeth  Morales,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Richard  Prince,Barbara  Grandy</t>
+  </si>
+  <si>
+    <t>Nina  Ficca,Francesca L Mancuso,Rosalba  Alarcon</t>
+  </si>
+  <si>
+    <t>Deborah  Tormey,Donna Marie  Shea,Gary  Elwell</t>
+  </si>
+  <si>
+    <t>Gionna A Botto-malecki,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>Karissa  Ksiazek,Joan  Kulbok</t>
+  </si>
+  <si>
+    <t>Andrea  Vreeland,Michael  Miltenberger</t>
+  </si>
+  <si>
+    <t>Amy L Williams,Betsy  Nieves</t>
+  </si>
+  <si>
+    <t>Kimberly  Ailes,Francesca L Mancuso</t>
+  </si>
+  <si>
+    <t>Gary  Elwell,Gionna A Botto-malecki</t>
+  </si>
+  <si>
+    <t>Katie L Marakos,Allison M Devinney</t>
+  </si>
+  <si>
+    <t>Jennifer  Fisher,Julie  Land</t>
+  </si>
+  <si>
+    <t>Catherine  Hackney,Joyce  Sidibe Williams</t>
+  </si>
+  <si>
+    <t>Joan  Kulbok,Kimberly  Shick</t>
+  </si>
+  <si>
+    <t>Jiovanna  Debella,Christina  Gonzales,Pamela  Buzby Rosenberg</t>
+  </si>
+  <si>
+    <t>Brandi  Sheridan,Deborah  Tormey</t>
+  </si>
+  <si>
+    <t>John  Dattalo,Andrea  Vreeland</t>
+  </si>
+  <si>
+    <t>Jonathan  Lelli,Michael  Miltenberger</t>
+  </si>
+  <si>
+    <t>Gary  Elwell,Virginia U Millar,Holly  Lindner</t>
+  </si>
+  <si>
+    <t>William  Heckman,Paula Mia  Campo,Theresa  Mansor</t>
+  </si>
+  <si>
+    <t>John  Toland,Gavin  Powell,Thomas  Ward</t>
+  </si>
+  <si>
+    <t>Randi  Gupton,Salma  Hussein</t>
+  </si>
+  <si>
+    <t>Sharon  Mclean,Jennifer  Fisher</t>
+  </si>
+  <si>
+    <t>Richard  Prince,Barbara  Shumski,Joyce  Sidibe Williams</t>
+  </si>
+  <si>
+    <t>Elizabeth  Tegler,Nina  Ficca,Brandi  Sheridan</t>
+  </si>
+  <si>
+    <t>Riana  Cordoba,Jonathan  Lelli</t>
+  </si>
+  <si>
+    <t>Lauren  Kaplan,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Deborah  Tormey,Jennifer  Handson</t>
+  </si>
+  <si>
+    <t>Anthony  Nistico,Christy  Feehan</t>
+  </si>
+  <si>
+    <t>Donna Marie  Shea,Joyce  Sidibe Williams</t>
+  </si>
+  <si>
+    <t>Alison  Bell,Tiffany  Jacobs</t>
+  </si>
+  <si>
+    <t>Robert  Newman,Brandi  Sheridan</t>
+  </si>
+  <si>
+    <t>Francesca L Mancuso,John  Dattalo</t>
+  </si>
+  <si>
+    <t>Carol H Buzby,Elizabeth  Morales</t>
+  </si>
+  <si>
+    <t>Joan  Kulbok,Brandi  Sheridan</t>
+  </si>
+  <si>
+    <t>Tiffany  Jacobs,Elizabeth  Morales</t>
+  </si>
+  <si>
+    <t>Kay  Maltz,Amy L Williams</t>
+  </si>
+  <si>
+    <t>Jennifer  Handson,Christy  Feehan</t>
+  </si>
+  <si>
+    <t>Catherine  Hackney,Georgiana  Murnaghan</t>
+  </si>
+  <si>
+    <t>Kate  Mccabe,Andrea  Vreeland</t>
+  </si>
+  <si>
+    <t>Catherine  Hackney,Lauren  Kaplan</t>
+  </si>
+  <si>
+    <t>Andrea  Vreeland,Gary  Elwell</t>
+  </si>
+  <si>
+    <t>Kelly  Bird,David B Bean,Cheryl  Mendez</t>
+  </si>
+  <si>
+    <t>Shaylese  Lassiter,Monica  Thomas,Tracey  Captan</t>
+  </si>
+  <si>
+    <t>Sharon  Mclean,Jennifer  Fisher,Latisha  Edwards</t>
+  </si>
+  <si>
+    <t>Catherine  Hackney,Tiffany  Smith,Alison  Bell</t>
+  </si>
+  <si>
+    <t>Gionna A Botto-malecki,Georgiana  Murnaghan,Nicole  Lindsay</t>
+  </si>
+  <si>
+    <t>Alyssa  Scull,Kay  Maltz,Amy L Williams</t>
+  </si>
+  <si>
+    <t>Betsy  Nieves,Jiovanna  Debella</t>
+  </si>
+  <si>
+    <t>Christina  Gonzales,Elizabeth  Tegler</t>
+  </si>
+  <si>
+    <t>Kate  Mccabe,Deborah  Tormey,Anthony  Nistico</t>
+  </si>
+  <si>
+    <t>Kimberly  Santoro,Catherine  Hackney,Gionna A Botto-malecki</t>
+  </si>
+  <si>
+    <t>Paula Mia  Campo,Della L Adams-meyer,Paula  Dever</t>
+  </si>
+  <si>
+    <t>Brittany M Smith,Crystal A Aikens,Ericka  Chapman</t>
+  </si>
+  <si>
+    <t>Matthew  Freund,Shaylese  Lassiter,Jason D Little</t>
+  </si>
+  <si>
+    <t>Sarah M Dickey,Teonnah  Thompson,Amber  Fenton</t>
+  </si>
+  <si>
+    <t>Danielle  Newsome,Julie  Land,Charlotte  Phillip-clarke</t>
+  </si>
+  <si>
+    <t>Tiffany  Smith,Georgiana  Murnaghan</t>
+  </si>
+  <si>
+    <t>Melissa  Wargo-brown,Lourdes  Vidal-turner,Christina  Gonzales</t>
+  </si>
+  <si>
+    <t>Elizabeth  Tegler,Pamela  Buzby Rosenberg,Rosalba  Alarcon</t>
+  </si>
+  <si>
+    <t>Riana  Cordoba,John  Dattalo,Anthony  Nistico</t>
+  </si>
+  <si>
+    <t>Catherine  Hackney,Carol H Buzby,Lauren  Kaplan</t>
+  </si>
+  <si>
+    <t>Alison  Bell,Virginia U Millar</t>
+  </si>
+  <si>
+    <t>Theresa  Mansor,Cheryl  Mendez,John  Toland</t>
+  </si>
+  <si>
+    <t>Paula  Dever,Brittany M Smith,Evelyn  Perez</t>
+  </si>
+  <si>
+    <t>Matthew  Freund,Gavin  Powell,Gina  Walk</t>
+  </si>
+  <si>
+    <t>Shaylese  Lassiter,Sharon  Mclean,Jennifer  Fisher</t>
+  </si>
+  <si>
+    <t>Julie  Land,Barbara  Shumski,Barbara  Grandy</t>
+  </si>
+  <si>
+    <t>Latisha  Edwards,Melissa  Wargo-brown,Kay  Maltz</t>
+  </si>
+  <si>
+    <t>Amy L Williams,Pamela  Buzby Rosenberg,Nina  Ficca</t>
+  </si>
+  <si>
+    <t>Kate  Mccabe,Catherine  Hackney,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>Georgiana  Murnaghan,Elizabeth  Morales,Nicole  Lindsay</t>
   </si>
   <si>
     <t>Brittany M Smith,Beth Ann  Daley</t>
   </si>
   <si>
-    <t>Ericka  Chapman,Antoinette  Gray</t>
-  </si>
-  <si>
-    <t>Susan  Rosenberg,Megan  Davis-white</t>
-  </si>
-  <si>
-    <t>Tracey  Captan,Cheryl J Alessandrine</t>
-  </si>
-  <si>
-    <t>Evelyn  Perez,Ericka  Chapman</t>
-  </si>
-  <si>
-    <t>Gavin  Powell,Caroline  Mccabe</t>
-  </si>
-  <si>
-    <t>Jennifer  Fisher,Charlotte  Phillip-clarke</t>
-  </si>
-  <si>
-    <t>Paula  Dever,Brittany M Smith</t>
-  </si>
-  <si>
-    <t>Ericka  Chapman,Matthew  Freund</t>
-  </si>
-  <si>
-    <t>Gina  Walk,Shaylese  Lassiter</t>
-  </si>
-  <si>
-    <t>Matthew  Freund,Antoinette  Gray,Susan  Rosenberg</t>
-  </si>
-  <si>
-    <t>Thomas  Ward,Gina  Walk,Monica  Thomas</t>
-  </si>
-  <si>
-    <t>Paula Mia  Campo,Della L Adams-meyer</t>
-  </si>
-  <si>
-    <t>Kelly  Bird,David B Bean</t>
-  </si>
-  <si>
-    <t>Theresa  Mansor,John  Toland</t>
-  </si>
-  <si>
-    <t>Megan  Davis-white,Monica  Thomas</t>
-  </si>
-  <si>
-    <t>Katie L Marakos,Teonnah  Thompson</t>
-  </si>
-  <si>
-    <t>Della L Adams-meyer,Chalon  Eberhart</t>
-  </si>
-  <si>
-    <t>Sharon  Mclean,Barbara  Shumski</t>
-  </si>
-  <si>
-    <t>Amy  Smith,Kathryn  Howard</t>
-  </si>
-  <si>
-    <t>Beth Ann  Daley,Matthew  Freund</t>
-  </si>
-  <si>
-    <t>Shaylese  Lassiter,Monica  Thomas</t>
-  </si>
-  <si>
-    <t>Matthew  Freund,Antoinette  Gray</t>
-  </si>
-  <si>
-    <t>Peter  Campo,Caroline  Mccabe,Chalon  Eberhart</t>
-  </si>
-  <si>
-    <t>Cheryl  Mendez,Adhan  Perez,Crystal A Aikens</t>
-  </si>
-  <si>
-    <t>Amber  Fenton,Kathy N Lewis</t>
-  </si>
-  <si>
-    <t>Jennifer  Fisher,Danielle  Newsome</t>
-  </si>
-  <si>
-    <t>Julie  Land,Susan  Biglin</t>
-  </si>
-  <si>
-    <t>Barbara  Shumski,Charlotte  Phillip-clarke</t>
-  </si>
-  <si>
-    <t>Latisha  Edwards,Regina T Gordon</t>
-  </si>
-  <si>
-    <t>Leslie  Harvey,Donna Marie  Shea</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Gary  Elwell,Alison  Bell</t>
-  </si>
-  <si>
-    <t>Crystal A Aikens,Sarah M Dickey</t>
-  </si>
-  <si>
-    <t>Peter  Campo,Sharon  Mclean</t>
-  </si>
-  <si>
-    <t>Paula  Dever,Evelyn  Perez</t>
-  </si>
-  <si>
-    <t>Adhan  Perez,Susan  Rosenberg</t>
-  </si>
-  <si>
-    <t>Randi  Gupton,Caroline  Mccabe,Teonnah  Thompson</t>
-  </si>
-  <si>
-    <t>Gavin  Powell,Megan  Davis-white</t>
-  </si>
-  <si>
-    <t>Kristina  Santoro,Barbara  Grandy</t>
-  </si>
-  <si>
-    <t>Jason D Little,Katie L Marakos</t>
-  </si>
-  <si>
-    <t>Tracey  Captan</t>
-  </si>
-  <si>
-    <t>Ericka  Chapman,Gavin  Powell,Antoinette  Gray</t>
-  </si>
-  <si>
-    <t>Thomas  Ward,Shaylese  Lassiter</t>
-  </si>
-  <si>
-    <t>Megan  Davis-white,Amy  Smith</t>
-  </si>
-  <si>
-    <t>Allison M Devinney,Teonnah  Thompson,Amber  Fenton</t>
-  </si>
-  <si>
-    <t>Salma  Hussein,Julie  Land</t>
-  </si>
-  <si>
-    <t>Chalon  Eberhart,Kristina  Santoro</t>
-  </si>
-  <si>
-    <t>Richard  Prince,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>William  Heckman,David B Bean</t>
-  </si>
-  <si>
-    <t>Kristina  Santoro,Salma  Hussein</t>
-  </si>
-  <si>
-    <t>Sharon  Mclean,Kathryn  Howard</t>
-  </si>
-  <si>
-    <t>Cheryl J Alessandrine,Jennifer  Fisher</t>
-  </si>
-  <si>
-    <t>Tiffany  Smith,Gionna A Botto-malecki</t>
-  </si>
-  <si>
-    <t>Salma  Hussein,Danielle  Newsome</t>
-  </si>
-  <si>
-    <t>Barbara  Grandy,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Donna Marie  Shea,Tiffany  Smith</t>
-  </si>
-  <si>
-    <t>Gary  Elwell,Tiffany  Jacobs</t>
-  </si>
-  <si>
-    <t>Georgiana  Murnaghan,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Karissa  Ksiazek,Melissa  Wargo-brown</t>
-  </si>
-  <si>
-    <t>Shaylese  Lassiter,Tracey  Captan,Cheryl J Alessandrine</t>
-  </si>
-  <si>
-    <t>Brittany M Smith,Evelyn  Perez</t>
-  </si>
-  <si>
-    <t>Allison M Devinney,Cheryl J Alessandrine</t>
-  </si>
-  <si>
-    <t>Holly  Lindner,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Melissa  Wargo-brown,Amy L Williams</t>
-  </si>
-  <si>
-    <t>Richard  Prince,Leslie  Harvey,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Gionna A Botto-malecki,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Melissa  Wargo-brown,Joan  Kulbok,Kay  Maltz</t>
-  </si>
-  <si>
-    <t>Betsy  Nieves,Lourdes  Vidal-turner</t>
-  </si>
-  <si>
-    <t>Juanita  Hyman,Regina T Gordon,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Holly  Lindner,Karissa  Ksiazek</t>
-  </si>
-  <si>
-    <t>Jiovanna  Debella,Pamela  Buzby Rosenberg</t>
-  </si>
-  <si>
-    <t>Jennifer  Fisher,Susan  Biglin,Charlotte  Phillip-clarke</t>
-  </si>
-  <si>
-    <t>Regina T Gordon,Tiffany  Smith</t>
-  </si>
-  <si>
-    <t>Virginia U Millar,Melissa  Wargo-brown</t>
-  </si>
-  <si>
-    <t>Kimberly  Shick,Betsy  Nieves,Lourdes  Vidal-turner</t>
-  </si>
-  <si>
-    <t>Deborah  Tormey,Anthony  Nistico</t>
-  </si>
-  <si>
-    <t>Andrea  Vreeland,Kimberly  Santoro</t>
-  </si>
-  <si>
-    <t>Kelly  Bird,Paula Mia  Campo</t>
-  </si>
-  <si>
-    <t>Allison M Devinney,Peter  Campo</t>
-  </si>
-  <si>
-    <t>Donna Marie  Shea,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Kimberly  Ailes</t>
-  </si>
-  <si>
-    <t>Brandi  Sheridan,Francesca L Mancuso</t>
-  </si>
-  <si>
-    <t>Gionna A Botto-malecki,Tiffany  Jacobs</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Gionna A Botto-malecki,Melissa  Wargo-brown</t>
-  </si>
-  <si>
-    <t>Kimberly  Shick,Christina  Gonzales</t>
-  </si>
-  <si>
-    <t>Anthony  Nistico,Donna Marie  Shea</t>
-  </si>
-  <si>
-    <t>Tiffany  Smith,Gary  Elwell</t>
-  </si>
-  <si>
-    <t>Alyssa  Scull,Amy L Williams</t>
-  </si>
-  <si>
-    <t>Lourdes  Vidal-turner,Jiovanna  Debella</t>
-  </si>
-  <si>
-    <t>Shaylese  Lassiter,Katie L Marakos</t>
-  </si>
-  <si>
-    <t>Caroline  Mccabe,Chalon  Eberhart</t>
-  </si>
-  <si>
-    <t>Juanita  Hyman,Kathy N Lewis</t>
-  </si>
-  <si>
-    <t>Alison  Bell,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Karissa  Ksiazek,Charlotte  Nagele Boles</t>
-  </si>
-  <si>
-    <t>Latisha  Edwards,Joyce  Sidibe Williams</t>
-  </si>
-  <si>
-    <t>Della L Adams-meyer,Kimberly  Santoro</t>
-  </si>
-  <si>
-    <t>Allison M Devinney,Tracey  Captan</t>
-  </si>
-  <si>
-    <t>Sarah M Dickey,Cheryl J Alessandrine</t>
-  </si>
-  <si>
-    <t>Randi  Gupton,Caroline  Mccabe,Kathy N Lewis</t>
-  </si>
-  <si>
-    <t>Sharon  Mclean,Julie  Land</t>
-  </si>
-  <si>
-    <t>Susan  Biglin,Barbara  Shumski</t>
-  </si>
-  <si>
-    <t>Christy  Feehan,Donna Marie  Shea</t>
-  </si>
-  <si>
-    <t>Lauren  Kaplan,Georgiana  Murnaghan</t>
-  </si>
-  <si>
-    <t>Amy  Smith,Allison M Devinney</t>
-  </si>
-  <si>
-    <t>Tracey  Captan,Sarah M Dickey</t>
-  </si>
-  <si>
-    <t>Cheryl J Alessandrine,Randi  Gupton</t>
-  </si>
-  <si>
-    <t>Peter  Campo,Caroline  Mccabe</t>
-  </si>
-  <si>
-    <t>Chalon  Eberhart,Teonnah  Thompson</t>
-  </si>
-  <si>
-    <t>Kristina  Santoro,Amber  Fenton</t>
-  </si>
-  <si>
-    <t>Salma  Hussein,Sharon  Mclean</t>
-  </si>
-  <si>
-    <t>Kathryn  Howard,Jennifer  Fisher</t>
-  </si>
-  <si>
-    <t>Danielle  Newsome,Julie  Land</t>
-  </si>
-  <si>
-    <t>Richard  Prince,Susan  Biglin</t>
-  </si>
-  <si>
-    <t>Barbara  Grandy,Latisha  Edwards</t>
-  </si>
-  <si>
-    <t>Regina T Gordon,Leslie  Harvey</t>
-  </si>
-  <si>
-    <t>Catherine  Hackney,Donna Marie  Shea</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Tiffany  Smith</t>
-  </si>
-  <si>
-    <t>Virginia U Millar,Georgiana  Murnaghan</t>
-  </si>
-  <si>
-    <t>Elizabeth  Morales,Holly  Lindner</t>
-  </si>
-  <si>
-    <t>Nicole  Lindsay,Karissa  Ksiazek</t>
-  </si>
-  <si>
-    <t>Melissa  Wargo-brown,Alyssa  Scull,Charlotte  Nagele Boles</t>
-  </si>
-  <si>
-    <t>Joan  Kulbok,Kay  Maltz,Amy L Williams</t>
-  </si>
-  <si>
-    <t>Kimberly  Shick,Betsy  Nieves</t>
-  </si>
-  <si>
-    <t>Kimberly  Ailes,Lourdes  Vidal-turner</t>
-  </si>
-  <si>
-    <t>Jiovanna  Debella,Christina  Gonzales</t>
-  </si>
-  <si>
-    <t>Robert  Newman,Elizabeth  Tegler</t>
-  </si>
-  <si>
-    <t>Pamela  Buzby Rosenberg,Nina  Ficca</t>
-  </si>
-  <si>
-    <t>Brandi  Sheridan,Francesca L Mancuso,Rosalba  Alarcon</t>
-  </si>
-  <si>
-    <t>Riana  Cordoba,Kate  Mccabe</t>
-  </si>
-  <si>
-    <t>Deborah  Tormey,John  Dattalo</t>
-  </si>
-  <si>
-    <t>Jennifer  Handson,Anthony  Nistico</t>
-  </si>
-  <si>
-    <t>Andrea  Vreeland,Christy  Feehan,Jonathan  Lelli</t>
-  </si>
-  <si>
-    <t>Michael  Miltenberger,Kimberly  Santoro</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Tiffany  Smith,Gary  Elwell</t>
-  </si>
-  <si>
-    <t>Alison  Bell,Gionna A Botto-malecki,Tiffany  Jacobs</t>
-  </si>
-  <si>
-    <t>Virginia U Millar,Georgiana  Murnaghan,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Lourdes  Vidal-turner,Robert  Newman</t>
-  </si>
-  <si>
-    <t>Adhan  Perez,Crystal A Aikens</t>
-  </si>
-  <si>
-    <t>Beth Ann  Daley,Ericka  Chapman</t>
-  </si>
-  <si>
-    <t>Matthew  Freund,Gavin  Powell</t>
-  </si>
-  <si>
-    <t>Randi  Gupton,Peter  Campo</t>
-  </si>
-  <si>
-    <t>Teonnah  Thompson,Kristina  Santoro</t>
-  </si>
-  <si>
-    <t>Amber  Fenton,Juanita  Hyman</t>
-  </si>
-  <si>
-    <t>Kathy N Lewis,Salma  Hussein</t>
-  </si>
-  <si>
-    <t>Julie  Land,Richard  Prince</t>
-  </si>
-  <si>
-    <t>Melissa  Wargo-brown,Alyssa  Scull</t>
-  </si>
-  <si>
-    <t>Charlotte  Nagele Boles,Joan  Kulbok</t>
-  </si>
-  <si>
-    <t>Kay  Maltz,Kimberly  Shick</t>
-  </si>
-  <si>
-    <t>Betsy  Nieves,Kimberly  Ailes</t>
-  </si>
-  <si>
-    <t>Christina  Gonzales,Robert  Newman</t>
-  </si>
-  <si>
-    <t>Elizabeth  Tegler,Pamela  Buzby Rosenberg</t>
-  </si>
-  <si>
-    <t>Nina  Ficca,Brandi  Sheridan</t>
-  </si>
-  <si>
-    <t>Francesca L Mancuso,Rosalba  Alarcon</t>
-  </si>
-  <si>
-    <t>Andrea  Vreeland,Christy  Feehan</t>
-  </si>
-  <si>
-    <t>Jonathan  Lelli,Michael  Miltenberger,Kimberly  Santoro</t>
-  </si>
-  <si>
-    <t>Catherine  Hackney,Donna Marie  Shea,Carol H Buzby</t>
-  </si>
-  <si>
-    <t>Lauren  Kaplan,Joyce  Sidibe Williams</t>
-  </si>
-  <si>
-    <t>Alison  Bell,Gionna A Botto-malecki</t>
-  </si>
-  <si>
-    <t>Tiffany  Jacobs,Virginia U Millar</t>
-  </si>
-  <si>
-    <t>Georgiana  Murnaghan,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Barbara  Grandy,Regina T Gordon</t>
-  </si>
-  <si>
-    <t>Catherine  Hackney,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>William  Heckman,Paula Mia  Campo</t>
-  </si>
-  <si>
-    <t>Evelyn  Perez,Crystal A Aikens</t>
-  </si>
-  <si>
-    <t>Amy  Smith,Tracey  Captan</t>
-  </si>
-  <si>
-    <t>Randi  Gupton,Teonnah  Thompson</t>
-  </si>
-  <si>
-    <t>Kathryn  Howard,Julie  Land</t>
-  </si>
-  <si>
-    <t>Charlotte  Phillip-clarke,Latisha  Edwards</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Joyce  Sidibe Williams</t>
-  </si>
-  <si>
-    <t>Alison  Bell,Tiffany  Jacobs</t>
-  </si>
-  <si>
-    <t>Elizabeth  Morales,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Alyssa  Scull,Charlotte  Nagele Boles</t>
-  </si>
-  <si>
-    <t>Kay  Maltz,Amy L Williams</t>
-  </si>
-  <si>
-    <t>Pamela  Buzby Rosenberg,Brandi  Sheridan</t>
-  </si>
-  <si>
-    <t>Andrea  Vreeland,Jonathan  Lelli</t>
-  </si>
-  <si>
-    <t>Michael  Miltenberger,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Gary  Elwell</t>
-  </si>
-  <si>
-    <t>Gionna A Botto-malecki,Georgiana  Murnaghan,Holly  Lindner</t>
-  </si>
-  <si>
-    <t>Beth Ann  Daley,Antoinette  Gray</t>
-  </si>
-  <si>
-    <t>Susan  Rosenberg,Gina  Walk</t>
-  </si>
-  <si>
-    <t>Amy  Smith,Cheryl J Alessandrine</t>
-  </si>
-  <si>
-    <t>Juanita  Hyman,Kathryn  Howard</t>
-  </si>
-  <si>
-    <t>Danielle  Newsome,Richard  Prince</t>
-  </si>
-  <si>
-    <t>Barbara  Shumski,Barbara  Grandy</t>
-  </si>
-  <si>
-    <t>Gionna A Botto-malecki,Karissa  Ksiazek</t>
-  </si>
-  <si>
-    <t>Tiffany  Smith,Alison  Bell</t>
-  </si>
-  <si>
-    <t>Shaylese  Lassiter,Megan  Davis-white</t>
-  </si>
-  <si>
-    <t>Robert  Newman,Pamela  Buzby Rosenberg</t>
-  </si>
-  <si>
-    <t>Antoinette  Gray,Susan  Rosenberg</t>
-  </si>
-  <si>
-    <t>Thomas  Ward,Gina  Walk</t>
-  </si>
-  <si>
-    <t>Katie L Marakos,Amy  Smith</t>
-  </si>
-  <si>
-    <t>Charlotte  Phillip-clarke,Barbara  Grandy</t>
-  </si>
-  <si>
-    <t>Leslie  Harvey,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Donna Marie  Shea,Carol H Buzby</t>
-  </si>
-  <si>
-    <t>Joan  Kulbok,Kay  Maltz</t>
-  </si>
-  <si>
-    <t>Amy L Williams,Kimberly  Shick</t>
-  </si>
-  <si>
-    <t>Deborah  Tormey,Jennifer  Handson</t>
-  </si>
-  <si>
-    <t>Anthony  Nistico,Andrea  Vreeland</t>
-  </si>
-  <si>
-    <t>Christy  Feehan,Michael  Miltenberger</t>
-  </si>
-  <si>
-    <t>Gionna A Botto-malecki,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Karissa  Ksiazek,Riana  Cordoba</t>
-  </si>
-  <si>
-    <t>Brandi  Sheridan,Deborah  Tormey</t>
-  </si>
-  <si>
-    <t>John  Dattalo,Anthony  Nistico</t>
-  </si>
-  <si>
-    <t>Kelly  Bird,Adhan  Perez</t>
-  </si>
-  <si>
-    <t>Allison M Devinney,Sarah M Dickey</t>
-  </si>
-  <si>
-    <t>Peter  Campo,Amber  Fenton,Juanita  Hyman</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Alison  Bell</t>
-  </si>
-  <si>
-    <t>Karissa  Ksiazek,Joan  Kulbok</t>
-  </si>
-  <si>
-    <t>Nina  Ficca,John  Dattalo</t>
-  </si>
-  <si>
-    <t>Andrea  Vreeland,Donna Marie  Shea</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Alison  Bell</t>
-  </si>
-  <si>
-    <t>Holly  Lindner,Alyssa  Scull</t>
-  </si>
-  <si>
-    <t>Kimberly  Ailes,Jennifer  Handson</t>
-  </si>
-  <si>
-    <t>Christy  Feehan,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Tiffany  Jacobs</t>
-  </si>
-  <si>
-    <t>Tiffany  Jacobs,Holly  Lindner</t>
-  </si>
-  <si>
-    <t>Virginia U Millar,Georgiana  Murnaghan,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Kimberly  Ailes,Robert  Newman</t>
-  </si>
-  <si>
-    <t>Francesca L Mancuso,John  Dattalo</t>
-  </si>
-  <si>
-    <t>Georgiana  Murnaghan,Holly  Lindner</t>
-  </si>
-  <si>
-    <t>Leslie  Harvey,Gary  Elwell</t>
-  </si>
-  <si>
-    <t>Joan  Kulbok,Riana  Cordoba</t>
-  </si>
-  <si>
-    <t>Kate  Mccabe,Jennifer  Handson</t>
-  </si>
-  <si>
-    <t>Tiffany  Smith,Tiffany  Jacobs</t>
-  </si>
-  <si>
-    <t>Virginia U Millar,Holly  Lindner</t>
-  </si>
-  <si>
-    <t>Brandi  Sheridan,Christy  Feehan</t>
-  </si>
-  <si>
-    <t>Jonathan  Lelli,Donna Marie  Shea</t>
-  </si>
-  <si>
-    <t>Susan  Rosenberg,Thomas  Ward,Gina  Walk</t>
-  </si>
-  <si>
-    <t>Holly  Lindner,Kay  Maltz</t>
-  </si>
-  <si>
-    <t>Jiovanna  Debella,Jonathan  Lelli</t>
-  </si>
-  <si>
-    <t>Kimberly  Santoro,Tiffany  Jacobs</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Gary  Elwell,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Joan  Kulbok,Kimberly  Shick</t>
-  </si>
-  <si>
-    <t>Christina  Gonzales,Pamela  Buzby Rosenberg,Kate  Mccabe</t>
-  </si>
-  <si>
-    <t>Christy  Feehan,Jonathan  Lelli</t>
-  </si>
-  <si>
-    <t>Donna Marie  Shea,Joyce  Sidibe Williams</t>
-  </si>
-  <si>
-    <t>Kimberly  Santoro,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Tiffany  Smith,Alison  Bell,Gionna A Botto-malecki</t>
-  </si>
-  <si>
-    <t>Amy L Williams,Betsy  Nieves,Brandi  Sheridan</t>
-  </si>
-  <si>
-    <t>Francesca L Mancuso,Riana  Cordoba</t>
-  </si>
-  <si>
-    <t>Kate  Mccabe,Deborah  Tormey</t>
-  </si>
-  <si>
-    <t>Kimberly  Santoro,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Virginia U Millar,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Nina  Ficca,Rosalba  Alarcon</t>
-  </si>
-  <si>
-    <t>Catherine  Hackney,Kay  Maltz,Amy L Williams</t>
-  </si>
-  <si>
-    <t>Francesca L Mancuso,Rosalba  Alarcon,Holly  Lindner</t>
-  </si>
-  <si>
-    <t>Gary  Elwell,Karissa  Ksiazek</t>
-  </si>
-  <si>
-    <t>Catherine  Hackney,Gary  Elwell</t>
-  </si>
-  <si>
-    <t>Charlotte  Nagele Boles,Kay  Maltz</t>
-  </si>
-  <si>
-    <t>Amy L Williams,Kimberly  Ailes</t>
-  </si>
-  <si>
-    <t>Nina  Ficca,Francesca L Mancuso</t>
-  </si>
-  <si>
-    <t>Jennifer  Fisher,Julie  Land</t>
-  </si>
-  <si>
-    <t>Richard  Prince,Latisha  Edwards</t>
-  </si>
-  <si>
-    <t>Regina T Gordon,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Virginia U Millar</t>
-  </si>
-  <si>
-    <t>Georgiana  Murnaghan,Melissa  Wargo-brown</t>
-  </si>
-  <si>
-    <t>Kay  Maltz,Betsy  Nieves</t>
-  </si>
-  <si>
-    <t>Kimberly  Ailes,Lourdes  Vidal-turner,Christina  Gonzales</t>
-  </si>
-  <si>
-    <t>Elizabeth  Tegler,Rosalba  Alarcon</t>
-  </si>
-  <si>
-    <t>John  Dattalo,Michael  Miltenberger</t>
-  </si>
-  <si>
-    <t>Alison  Bell,Virginia U Millar,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Paula Mia  Campo,Theresa  Mansor,Matthew  Freund</t>
-  </si>
-  <si>
-    <t>Thomas  Ward,Gina  Walk,Tracey  Captan</t>
-  </si>
-  <si>
-    <t>Sarah M Dickey,Kathy N Lewis</t>
-  </si>
-  <si>
-    <t>Salma  Hussein,Jennifer  Fisher</t>
-  </si>
-  <si>
-    <t>Danielle  Newsome,Richard  Prince,Susan  Biglin</t>
-  </si>
-  <si>
-    <t>Joyce  Sidibe Williams,Gionna A Botto-malecki,Georgiana  Murnaghan</t>
-  </si>
-  <si>
-    <t>Holly  Lindner,Francesca L Mancuso</t>
-  </si>
-  <si>
-    <t>Tiffany  Jacobs,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Kate  Mccabe,John  Dattalo</t>
-  </si>
-  <si>
-    <t>Jennifer  Handson,Christy  Feehan</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Tiffany  Smith</t>
-  </si>
-  <si>
-    <t>John  Dattalo,Jonathan  Lelli</t>
-  </si>
-  <si>
-    <t>Andrea  Vreeland,Michael  Miltenberger</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Gionna A Botto-malecki</t>
-  </si>
-  <si>
-    <t>Gary  Elwell,Gionna A Botto-malecki</t>
-  </si>
-  <si>
-    <t>Tiffany  Jacobs,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Amy L Williams,Nina  Ficca</t>
-  </si>
-  <si>
-    <t>Kimberly  Santoro,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Tiffany  Smith,Virginia U Millar</t>
-  </si>
-  <si>
-    <t>Kate  Mccabe,Christy  Feehan</t>
-  </si>
-  <si>
-    <t>Catherine  Hackney,Alison  Bell</t>
-  </si>
-  <si>
-    <t>David B Bean,John  Toland,Brittany M Smith</t>
-  </si>
-  <si>
-    <t>Crystal A Aikens,Cheryl J Alessandrine,Caroline  Mccabe</t>
-  </si>
-  <si>
-    <t>Teonnah  Thompson,Kristina  Santoro,Amber  Fenton</t>
-  </si>
-  <si>
-    <t>Kathy N Lewis,Salma  Hussein,Jennifer  Fisher</t>
-  </si>
-  <si>
-    <t>Richard  Prince,Susan  Biglin,Barbara  Shumski</t>
-  </si>
-  <si>
-    <t>Charlotte  Phillip-clarke,Latisha  Edwards,Donna Marie  Shea</t>
-  </si>
-  <si>
-    <t>Kimberly  Ailes,Jiovanna  Debella</t>
-  </si>
-  <si>
-    <t>Robert  Newman,Elizabeth  Tegler,Pamela  Buzby Rosenberg</t>
-  </si>
-  <si>
-    <t>Nina  Ficca,Rosalba  Alarcon,Riana  Cordoba</t>
-  </si>
-  <si>
-    <t>Jennifer  Handson,Jonathan  Lelli</t>
-  </si>
-  <si>
-    <t>Paula Mia  Campo,Theresa  Mansor,Cheryl  Mendez</t>
-  </si>
-  <si>
-    <t>Paula  Dever,Brittany M Smith,Evelyn  Perez</t>
-  </si>
-  <si>
-    <t>Adhan  Perez,Crystal A Aikens,Beth Ann  Daley</t>
-  </si>
-  <si>
-    <t>Ericka  Chapman,Matthew  Freund,Amy  Smith</t>
-  </si>
-  <si>
-    <t>Sarah M Dickey,Peter  Campo,Caroline  Mccabe</t>
-  </si>
-  <si>
-    <t>Leslie  Harvey,Tiffany  Smith,Gary  Elwell</t>
-  </si>
-  <si>
-    <t>Alison  Bell,Tiffany  Jacobs,Charlotte  Nagele Boles</t>
-  </si>
-  <si>
-    <t>Elizabeth  Tegler,Brandi  Sheridan,Rosalba  Alarcon</t>
-  </si>
-  <si>
-    <t>Anthony  Nistico,Jonathan  Lelli,Catherine  Hackney</t>
-  </si>
-  <si>
-    <t>Paula Mia  Campo,Della L Adams-meyer,Cheryl  Mendez</t>
-  </si>
-  <si>
-    <t>John  Toland,Adhan  Perez,Matthew  Freund</t>
-  </si>
-  <si>
-    <t>Gina  Walk,Jason D Little,Katie L Marakos</t>
-  </si>
-  <si>
-    <t>Amy  Smith,Sarah M Dickey,Chalon  Eberhart</t>
-  </si>
-  <si>
-    <t>Teonnah  Thompson,Juanita  Hyman,Kathy N Lewis</t>
-  </si>
-  <si>
-    <t>Sharon  Mclean,Kathryn  Howard,Latisha  Edwards</t>
-  </si>
-  <si>
-    <t>Regina T Gordon,Leslie  Harvey,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Elizabeth  Morales,Alyssa  Scull,Charlotte  Nagele Boles</t>
-  </si>
-  <si>
-    <t>Kay  Maltz,Lourdes  Vidal-turner,Elizabeth  Tegler</t>
-  </si>
-  <si>
-    <t>Nina  Ficca,Riana  Cordoba,Michael  Miltenberger</t>
-  </si>
-  <si>
-    <t>Tiffany  Smith,Alison  Bell,Nicole  Lindsay</t>
-  </si>
-  <si>
-    <t>Cheryl  Mendez,Paula  Dever</t>
-  </si>
-  <si>
-    <t>Monica  Thomas,Katie L Marakos</t>
-  </si>
-  <si>
-    <t>Amy  Smith,Randi  Gupton,Peter  Campo</t>
-  </si>
-  <si>
-    <t>Salma  Hussein,Sharon  Mclean,Kathryn  Howard</t>
-  </si>
-  <si>
-    <t>Susan  Biglin,Charlotte  Phillip-clarke,Latisha  Edwards</t>
-  </si>
-  <si>
-    <t>Donna Marie  Shea,Joyce  Sidibe Williams,Alison  Bell</t>
-  </si>
-  <si>
-    <t>Tiffany  Jacobs,Georgiana  Murnaghan,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Holly  Lindner,Alyssa  Scull,Kimberly  Shick</t>
-  </si>
-  <si>
-    <t>Christina  Gonzales,Elizabeth  Tegler,Pamela  Buzby Rosenberg</t>
-  </si>
-  <si>
-    <t>Riana  Cordoba,Deborah  Tormey,John  Dattalo</t>
-  </si>
-  <si>
-    <t>Jennifer  Handson,Carol H Buzby</t>
-  </si>
-  <si>
-    <t>David B Bean,Allison M Devinney</t>
-  </si>
-  <si>
-    <t>Tracey  Captan,Peter  Campo</t>
-  </si>
-  <si>
-    <t>Danielle  Newsome,Regina T Gordon</t>
-  </si>
-  <si>
-    <t>Carol H Buzby,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Nicole  Lindsay,Alyssa  Scull</t>
-  </si>
-  <si>
-    <t>Pamela  Buzby Rosenberg,Kate  Mccabe</t>
-  </si>
-  <si>
-    <t>Andrea  Vreeland,Lauren  Kaplan</t>
-  </si>
-  <si>
-    <t>Randi  Gupton,Chalon  Eberhart,Salma  Hussein</t>
-  </si>
-  <si>
-    <t>Sharon  Mclean,Kathryn  Howard,Danielle  Newsome</t>
-  </si>
-  <si>
-    <t>Julie  Land,Richard  Prince,Barbara  Grandy</t>
-  </si>
-  <si>
-    <t>Leslie  Harvey,Donna Marie  Shea,Carol H Buzby</t>
-  </si>
-  <si>
-    <t>Gary  Elwell,Virginia U Millar</t>
-  </si>
-  <si>
-    <t>Charlotte  Nagele Boles,Joan  Kulbok,Amy L Williams</t>
-  </si>
-  <si>
-    <t>Jiovanna  Debella,Nina  Ficca,Andrea  Vreeland</t>
-  </si>
-  <si>
-    <t>Michael  Miltenberger,Catherine  Hackney,Donna Marie  Shea</t>
-  </si>
-  <si>
-    <t>Gionna A Botto-malecki,Georgiana  Murnaghan,Elizabeth  Morales</t>
-  </si>
-  <si>
-    <t>Tiffany  Jacobs,Georgiana  Murnaghan</t>
+    <t>Allison M Devinney,Randi  Gupton</t>
+  </si>
+  <si>
+    <t>Kristina  Santoro,Sharon  Mclean,Kathryn  Howard</t>
+  </si>
+  <si>
+    <t>Julie  Land,Barbara  Shumski,Regina T Gordon</t>
+  </si>
+  <si>
+    <t>Donna Marie  Shea,Virginia U Millar,Karissa  Ksiazek</t>
+  </si>
+  <si>
+    <t>Melissa  Wargo-brown,Alyssa  Scull,Kimberly  Ailes</t>
+  </si>
+  <si>
+    <t>Jiovanna  Debella,Christina  Gonzales,Robert  Newman</t>
+  </si>
+  <si>
+    <t>Francesca L Mancuso,Kate  Mccabe,John  Dattalo</t>
+  </si>
+  <si>
+    <t>Jennifer  Handson,Andrea  Vreeland,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Donna Marie  Shea,Carol H Buzby,Tiffany  Smith</t>
+  </si>
+  <si>
+    <t>Kelly  Bird,Della L Adams-meyer</t>
+  </si>
+  <si>
+    <t>Megan  Davis-white,Jason D Little</t>
+  </si>
+  <si>
+    <t>Kristina  Santoro,Sharon  Mclean</t>
+  </si>
+  <si>
+    <t>Susan  Biglin,Catherine  Hackney</t>
+  </si>
+  <si>
+    <t>Lauren  Kaplan,Gary  Elwell</t>
+  </si>
+  <si>
+    <t>Alison  Bell,Georgiana  Murnaghan</t>
+  </si>
+  <si>
+    <t>Lourdes  Vidal-turner,Rosalba  Alarcon</t>
+  </si>
+  <si>
+    <t>Kate  Mccabe,Jonathan  Lelli</t>
+  </si>
+  <si>
+    <t>Michael  Miltenberger,Lauren  Kaplan</t>
+  </si>
+  <si>
+    <t>Paula  Dever,Evelyn  Perez,Crystal A Aikens</t>
+  </si>
+  <si>
+    <t>Thomas  Ward,Jason D Little,Sarah M Dickey</t>
+  </si>
+  <si>
+    <t>Peter  Campo,Kristina  Santoro,Kathy N Lewis</t>
+  </si>
+  <si>
+    <t>Jennifer  Fisher,Susan  Biglin</t>
+  </si>
+  <si>
+    <t>Barbara  Shumski,Gary  Elwell,Charlotte  Nagele Boles</t>
+  </si>
+  <si>
+    <t>Kay  Maltz,Jiovanna  Debella,Robert  Newman</t>
+  </si>
+  <si>
+    <t>Riana  Cordoba,Christy  Feehan,Donna Marie  Shea</t>
+  </si>
+  <si>
+    <t>Carol H Buzby,Joyce  Sidibe Williams,Gionna A Botto-malecki</t>
   </si>
 </sst>
 </file>
@@ -2291,7 +2273,7 @@
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2314,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2337,7 +2319,7 @@
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2360,7 +2342,7 @@
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2383,7 +2365,7 @@
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2406,7 +2388,7 @@
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2429,7 +2411,7 @@
         <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2452,7 +2434,7 @@
         <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2475,7 +2457,7 @@
         <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2498,7 +2480,7 @@
         <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2521,7 +2503,7 @@
         <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2544,7 +2526,7 @@
         <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2590,7 +2572,7 @@
         <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2613,7 +2595,7 @@
         <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2659,7 +2641,7 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2682,7 +2664,7 @@
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2705,7 +2687,7 @@
         <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2728,7 +2710,7 @@
         <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2751,7 +2733,7 @@
         <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2774,7 +2756,7 @@
         <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2889,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2912,7 +2894,7 @@
         <v>2</v>
       </c>
       <c r="G39" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2935,7 +2917,7 @@
         <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2958,7 +2940,7 @@
         <v>2</v>
       </c>
       <c r="G41" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2981,7 +2963,7 @@
         <v>2</v>
       </c>
       <c r="G42" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -3004,7 +2986,7 @@
         <v>2</v>
       </c>
       <c r="G43" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -3027,7 +3009,7 @@
         <v>2</v>
       </c>
       <c r="G44" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -3050,7 +3032,7 @@
         <v>2</v>
       </c>
       <c r="G45" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -3073,7 +3055,7 @@
         <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -3096,7 +3078,7 @@
         <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -3119,7 +3101,7 @@
         <v>2</v>
       </c>
       <c r="G48" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -3142,7 +3124,7 @@
         <v>2</v>
       </c>
       <c r="G49" t="s">
-        <v>219</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -3165,7 +3147,7 @@
         <v>2</v>
       </c>
       <c r="G50" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -3188,7 +3170,7 @@
         <v>2</v>
       </c>
       <c r="G51" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -3211,7 +3193,7 @@
         <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -3234,7 +3216,7 @@
         <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -3257,7 +3239,7 @@
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -3280,7 +3262,7 @@
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -3303,7 +3285,7 @@
         <v>2</v>
       </c>
       <c r="G56" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3326,7 +3308,7 @@
         <v>2</v>
       </c>
       <c r="G57" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3349,7 +3331,7 @@
         <v>2</v>
       </c>
       <c r="G58" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3372,7 +3354,7 @@
         <v>2</v>
       </c>
       <c r="G59" t="s">
-        <v>226</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3418,7 +3400,7 @@
         <v>2</v>
       </c>
       <c r="G61" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3441,7 +3423,7 @@
         <v>3</v>
       </c>
       <c r="G62" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3464,7 +3446,7 @@
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3487,7 +3469,7 @@
         <v>2</v>
       </c>
       <c r="G64" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3510,7 +3492,7 @@
         <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3533,7 +3515,7 @@
         <v>2</v>
       </c>
       <c r="G66" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3556,7 +3538,7 @@
         <v>2</v>
       </c>
       <c r="G67" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3579,7 +3561,7 @@
         <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3602,7 +3584,7 @@
         <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3625,7 +3607,7 @@
         <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3648,7 +3630,7 @@
         <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3671,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="G72" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3694,7 +3676,7 @@
         <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3717,7 +3699,7 @@
         <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3740,7 +3722,7 @@
         <v>2</v>
       </c>
       <c r="G75" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3763,7 +3745,7 @@
         <v>3</v>
       </c>
       <c r="G76" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3786,7 +3768,7 @@
         <v>2</v>
       </c>
       <c r="G77" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3809,7 +3791,7 @@
         <v>2</v>
       </c>
       <c r="G78" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3832,7 +3814,7 @@
         <v>2</v>
       </c>
       <c r="G79" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3855,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3878,7 +3860,7 @@
         <v>2</v>
       </c>
       <c r="G81" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3901,7 +3883,7 @@
         <v>3</v>
       </c>
       <c r="G82" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3924,7 +3906,7 @@
         <v>2</v>
       </c>
       <c r="G83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3947,7 +3929,7 @@
         <v>2</v>
       </c>
       <c r="G84" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3970,7 +3952,7 @@
         <v>3</v>
       </c>
       <c r="G85" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3993,7 +3975,7 @@
         <v>2</v>
       </c>
       <c r="G86" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -4016,7 +3998,7 @@
         <v>2</v>
       </c>
       <c r="G87" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -4062,7 +4044,7 @@
         <v>2</v>
       </c>
       <c r="G89" t="s">
-        <v>255</v>
+        <v>195</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -4085,7 +4067,7 @@
         <v>2</v>
       </c>
       <c r="G90" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -4108,7 +4090,7 @@
         <v>2</v>
       </c>
       <c r="G91" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -4131,7 +4113,7 @@
         <v>2</v>
       </c>
       <c r="G92" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -4154,7 +4136,7 @@
         <v>2</v>
       </c>
       <c r="G93" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -4177,7 +4159,7 @@
         <v>2</v>
       </c>
       <c r="G94" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -4200,7 +4182,7 @@
         <v>2</v>
       </c>
       <c r="G95" t="s">
-        <v>261</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -4223,7 +4205,7 @@
         <v>2</v>
       </c>
       <c r="G96" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -4246,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="G97" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -4269,7 +4251,7 @@
         <v>2</v>
       </c>
       <c r="G98" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -4292,7 +4274,7 @@
         <v>2</v>
       </c>
       <c r="G99" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -4315,7 +4297,7 @@
         <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4338,7 +4320,7 @@
         <v>2</v>
       </c>
       <c r="G101" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4361,7 +4343,7 @@
         <v>2</v>
       </c>
       <c r="G102" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4384,7 +4366,7 @@
         <v>2</v>
       </c>
       <c r="G103" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4407,7 +4389,7 @@
         <v>2</v>
       </c>
       <c r="G104" t="s">
-        <v>205</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4453,7 +4435,7 @@
         <v>2</v>
       </c>
       <c r="G106" t="s">
-        <v>214</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4476,7 +4458,7 @@
         <v>2</v>
       </c>
       <c r="G107" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4499,7 +4481,7 @@
         <v>2</v>
       </c>
       <c r="G108" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4522,7 +4504,7 @@
         <v>2</v>
       </c>
       <c r="G109" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4545,7 +4527,7 @@
         <v>2</v>
       </c>
       <c r="G110" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4568,7 +4550,7 @@
         <v>3</v>
       </c>
       <c r="G111" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4591,7 +4573,7 @@
         <v>2</v>
       </c>
       <c r="G112" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4614,7 +4596,7 @@
         <v>3</v>
       </c>
       <c r="G113" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4637,7 +4619,7 @@
         <v>2</v>
       </c>
       <c r="G114" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4660,7 +4642,7 @@
         <v>3</v>
       </c>
       <c r="G115" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4683,7 +4665,7 @@
         <v>2</v>
       </c>
       <c r="G116" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4706,7 +4688,7 @@
         <v>2</v>
       </c>
       <c r="G117" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4729,7 +4711,7 @@
         <v>3</v>
       </c>
       <c r="G118" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4752,7 +4734,7 @@
         <v>2</v>
       </c>
       <c r="G119" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4775,7 +4757,7 @@
         <v>2</v>
       </c>
       <c r="G120" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4798,7 +4780,7 @@
         <v>3</v>
       </c>
       <c r="G121" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4821,7 +4803,7 @@
         <v>2</v>
       </c>
       <c r="G122" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4844,7 +4826,7 @@
         <v>2</v>
       </c>
       <c r="G123" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4867,7 +4849,7 @@
         <v>2</v>
       </c>
       <c r="G124" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4890,7 +4872,7 @@
         <v>2</v>
       </c>
       <c r="G125" t="s">
-        <v>267</v>
+        <v>286</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4913,7 +4895,7 @@
         <v>2</v>
       </c>
       <c r="G126" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4936,7 +4918,7 @@
         <v>2</v>
       </c>
       <c r="G127" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4959,7 +4941,7 @@
         <v>2</v>
       </c>
       <c r="G128" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4982,7 +4964,7 @@
         <v>2</v>
       </c>
       <c r="G129" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -5005,7 +4987,7 @@
         <v>2</v>
       </c>
       <c r="G130" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -5028,7 +5010,7 @@
         <v>3</v>
       </c>
       <c r="G131" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -5051,7 +5033,7 @@
         <v>2</v>
       </c>
       <c r="G132" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -5074,7 +5056,7 @@
         <v>2</v>
       </c>
       <c r="G133" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -5097,7 +5079,7 @@
         <v>2</v>
       </c>
       <c r="G134" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -5120,7 +5102,7 @@
         <v>2</v>
       </c>
       <c r="G135" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -5189,7 +5171,7 @@
         <v>2</v>
       </c>
       <c r="G138" t="s">
-        <v>198</v>
+        <v>297</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -5212,7 +5194,7 @@
         <v>2</v>
       </c>
       <c r="G139" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -5327,7 +5309,7 @@
         <v>2</v>
       </c>
       <c r="G144" t="s">
-        <v>219</v>
+        <v>302</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5350,7 +5332,7 @@
         <v>2</v>
       </c>
       <c r="G145" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5373,7 +5355,7 @@
         <v>2</v>
       </c>
       <c r="G146" t="s">
-        <v>246</v>
+        <v>267</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5396,7 +5378,7 @@
         <v>2</v>
       </c>
       <c r="G147" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5419,7 +5401,7 @@
         <v>2</v>
       </c>
       <c r="G148" t="s">
-        <v>304</v>
+        <v>207</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5465,7 +5447,7 @@
         <v>2</v>
       </c>
       <c r="G150" t="s">
-        <v>306</v>
+        <v>235</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5488,7 +5470,7 @@
         <v>2</v>
       </c>
       <c r="G151" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5511,7 +5493,7 @@
         <v>2</v>
       </c>
       <c r="G152" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5534,7 +5516,7 @@
         <v>2</v>
       </c>
       <c r="G153" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5557,7 +5539,7 @@
         <v>2</v>
       </c>
       <c r="G154" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5580,7 +5562,7 @@
         <v>2</v>
       </c>
       <c r="G155" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5603,7 +5585,7 @@
         <v>2</v>
       </c>
       <c r="G156" t="s">
-        <v>192</v>
+        <v>227</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5626,7 +5608,7 @@
         <v>2</v>
       </c>
       <c r="G157" t="s">
-        <v>181</v>
+        <v>309</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5649,7 +5631,7 @@
         <v>2</v>
       </c>
       <c r="G158" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5672,7 +5654,7 @@
         <v>2</v>
       </c>
       <c r="G159" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5695,7 +5677,7 @@
         <v>2</v>
       </c>
       <c r="G160" t="s">
-        <v>200</v>
+        <v>310</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5718,7 +5700,7 @@
         <v>2</v>
       </c>
       <c r="G161" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5741,7 +5723,7 @@
         <v>2</v>
       </c>
       <c r="G162" t="s">
-        <v>201</v>
+        <v>311</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5764,7 +5746,7 @@
         <v>2</v>
       </c>
       <c r="G163" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5787,7 +5769,7 @@
         <v>2</v>
       </c>
       <c r="G164" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5810,7 +5792,7 @@
         <v>2</v>
       </c>
       <c r="G165" t="s">
-        <v>221</v>
+        <v>312</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5833,7 +5815,7 @@
         <v>2</v>
       </c>
       <c r="G166" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5856,7 +5838,7 @@
         <v>2</v>
       </c>
       <c r="G167" t="s">
-        <v>310</v>
+        <v>183</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5879,7 +5861,7 @@
         <v>2</v>
       </c>
       <c r="G168" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5902,7 +5884,7 @@
         <v>2</v>
       </c>
       <c r="G169" t="s">
-        <v>312</v>
+        <v>209</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5925,7 +5907,7 @@
         <v>2</v>
       </c>
       <c r="G170" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5948,7 +5930,7 @@
         <v>2</v>
       </c>
       <c r="G171" t="s">
-        <v>314</v>
+        <v>236</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5994,7 +5976,7 @@
         <v>2</v>
       </c>
       <c r="G173" t="s">
-        <v>298</v>
+        <v>217</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -6063,7 +6045,7 @@
         <v>2</v>
       </c>
       <c r="G176" t="s">
-        <v>318</v>
+        <v>238</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -6086,7 +6068,7 @@
         <v>2</v>
       </c>
       <c r="G177" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -6109,7 +6091,7 @@
         <v>2</v>
       </c>
       <c r="G178" t="s">
-        <v>234</v>
+        <v>319</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -6178,7 +6160,7 @@
         <v>2</v>
       </c>
       <c r="G181" t="s">
-        <v>322</v>
+        <v>186</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -6201,7 +6183,7 @@
         <v>2</v>
       </c>
       <c r="G182" t="s">
-        <v>237</v>
+        <v>322</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -6224,7 +6206,7 @@
         <v>2</v>
       </c>
       <c r="G183" t="s">
-        <v>323</v>
+        <v>291</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -6247,7 +6229,7 @@
         <v>2</v>
       </c>
       <c r="G184" t="s">
-        <v>238</v>
+        <v>323</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -6270,7 +6252,7 @@
         <v>2</v>
       </c>
       <c r="G185" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -6477,7 +6459,7 @@
         <v>2</v>
       </c>
       <c r="G194" t="s">
-        <v>332</v>
+        <v>295</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6500,7 +6482,7 @@
         <v>2</v>
       </c>
       <c r="G195" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6523,7 +6505,7 @@
         <v>3</v>
       </c>
       <c r="G196" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6546,7 +6528,7 @@
         <v>2</v>
       </c>
       <c r="G197" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6569,7 +6551,7 @@
         <v>2</v>
       </c>
       <c r="G198" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6592,7 +6574,7 @@
         <v>2</v>
       </c>
       <c r="G199" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6615,7 +6597,7 @@
         <v>3</v>
       </c>
       <c r="G200" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6638,7 +6620,7 @@
         <v>2</v>
       </c>
       <c r="G201" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6661,7 +6643,7 @@
         <v>2</v>
       </c>
       <c r="G202" t="s">
-        <v>322</v>
+        <v>186</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6684,7 +6666,7 @@
         <v>2</v>
       </c>
       <c r="G203" t="s">
-        <v>237</v>
+        <v>322</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6707,7 +6689,7 @@
         <v>3</v>
       </c>
       <c r="G204" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6730,7 +6712,7 @@
         <v>3</v>
       </c>
       <c r="G205" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6753,7 +6735,7 @@
         <v>3</v>
       </c>
       <c r="G206" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6776,7 +6758,7 @@
         <v>2</v>
       </c>
       <c r="G207" t="s">
-        <v>269</v>
+        <v>342</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6822,7 +6804,7 @@
         <v>2</v>
       </c>
       <c r="G209" t="s">
-        <v>218</v>
+        <v>344</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6845,7 +6827,7 @@
         <v>2</v>
       </c>
       <c r="G210" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6868,7 +6850,7 @@
         <v>2</v>
       </c>
       <c r="G211" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6891,7 +6873,7 @@
         <v>2</v>
       </c>
       <c r="G212" t="s">
-        <v>267</v>
+        <v>201</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6914,7 +6896,7 @@
         <v>2</v>
       </c>
       <c r="G213" t="s">
-        <v>344</v>
+        <v>266</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6960,7 +6942,7 @@
         <v>2</v>
       </c>
       <c r="G215" t="s">
-        <v>346</v>
+        <v>267</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6983,7 +6965,7 @@
         <v>2</v>
       </c>
       <c r="G216" t="s">
-        <v>193</v>
+        <v>304</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -7006,7 +6988,7 @@
         <v>2</v>
       </c>
       <c r="G217" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -7029,7 +7011,7 @@
         <v>2</v>
       </c>
       <c r="G218" t="s">
-        <v>221</v>
+        <v>346</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -7052,7 +7034,7 @@
         <v>2</v>
       </c>
       <c r="G219" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -7075,7 +7057,7 @@
         <v>2</v>
       </c>
       <c r="G220" t="s">
-        <v>310</v>
+        <v>226</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -7098,7 +7080,7 @@
         <v>2</v>
       </c>
       <c r="G221" t="s">
-        <v>304</v>
+        <v>234</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -7144,7 +7126,7 @@
         <v>2</v>
       </c>
       <c r="G223" t="s">
-        <v>297</v>
+        <v>216</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -7236,7 +7218,7 @@
         <v>2</v>
       </c>
       <c r="G227" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -7259,7 +7241,7 @@
         <v>2</v>
       </c>
       <c r="G228" t="s">
-        <v>232</v>
+        <v>351</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -7282,7 +7264,7 @@
         <v>2</v>
       </c>
       <c r="G229" t="s">
-        <v>351</v>
+        <v>219</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -7305,7 +7287,7 @@
         <v>2</v>
       </c>
       <c r="G230" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -7328,7 +7310,7 @@
         <v>2</v>
       </c>
       <c r="G231" t="s">
-        <v>320</v>
+        <v>352</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -7351,7 +7333,7 @@
         <v>2</v>
       </c>
       <c r="G232" t="s">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -7374,7 +7356,7 @@
         <v>2</v>
       </c>
       <c r="G233" t="s">
-        <v>322</v>
+        <v>254</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -7397,7 +7379,7 @@
         <v>2</v>
       </c>
       <c r="G234" t="s">
-        <v>237</v>
+        <v>354</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -7420,7 +7402,7 @@
         <v>2</v>
       </c>
       <c r="G235" t="s">
-        <v>323</v>
+        <v>355</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -7443,7 +7425,7 @@
         <v>2</v>
       </c>
       <c r="G236" t="s">
-        <v>238</v>
+        <v>356</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -7466,7 +7448,7 @@
         <v>2</v>
       </c>
       <c r="G237" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -7489,7 +7471,7 @@
         <v>2</v>
       </c>
       <c r="G238" t="s">
-        <v>324</v>
+        <v>357</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -7512,7 +7494,7 @@
         <v>2</v>
       </c>
       <c r="G239" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -7535,7 +7517,7 @@
         <v>2</v>
       </c>
       <c r="G240" t="s">
-        <v>326</v>
+        <v>358</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -7558,7 +7540,7 @@
         <v>2</v>
       </c>
       <c r="G241" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -7581,7 +7563,7 @@
         <v>2</v>
       </c>
       <c r="G242" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -7604,7 +7586,7 @@
         <v>2</v>
       </c>
       <c r="G243" t="s">
-        <v>354</v>
+        <v>301</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -7627,7 +7609,7 @@
         <v>2</v>
       </c>
       <c r="G244" t="s">
-        <v>355</v>
+        <v>263</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -7650,7 +7632,7 @@
         <v>2</v>
       </c>
       <c r="G245" t="s">
-        <v>295</v>
+        <v>361</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -7673,7 +7655,7 @@
         <v>2</v>
       </c>
       <c r="G246" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -7696,7 +7678,7 @@
         <v>2</v>
       </c>
       <c r="G247" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -7719,7 +7701,7 @@
         <v>2</v>
       </c>
       <c r="G248" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -7742,7 +7724,7 @@
         <v>2</v>
       </c>
       <c r="G249" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -7765,7 +7747,7 @@
         <v>2</v>
       </c>
       <c r="G250" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -7788,7 +7770,7 @@
         <v>2</v>
       </c>
       <c r="G251" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -7811,7 +7793,7 @@
         <v>2</v>
       </c>
       <c r="G252" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -7834,7 +7816,7 @@
         <v>2</v>
       </c>
       <c r="G253" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -7857,7 +7839,7 @@
         <v>3</v>
       </c>
       <c r="G254" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -7880,7 +7862,7 @@
         <v>3</v>
       </c>
       <c r="G255" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -7903,7 +7885,7 @@
         <v>2</v>
       </c>
       <c r="G256" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -7926,7 +7908,7 @@
         <v>2</v>
       </c>
       <c r="G257" t="s">
-        <v>293</v>
+        <v>355</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -7949,7 +7931,7 @@
         <v>2</v>
       </c>
       <c r="G258" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -7972,7 +7954,7 @@
         <v>2</v>
       </c>
       <c r="G259" t="s">
-        <v>365</v>
+        <v>290</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -7995,7 +7977,7 @@
         <v>2</v>
       </c>
       <c r="G260" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -8018,7 +8000,7 @@
         <v>2</v>
       </c>
       <c r="G261" t="s">
-        <v>269</v>
+        <v>342</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -8041,7 +8023,7 @@
         <v>2</v>
       </c>
       <c r="G262" t="s">
-        <v>190</v>
+        <v>369</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -8064,7 +8046,7 @@
         <v>2</v>
       </c>
       <c r="G263" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -8087,7 +8069,7 @@
         <v>2</v>
       </c>
       <c r="G264" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -8110,7 +8092,7 @@
         <v>2</v>
       </c>
       <c r="G265" t="s">
-        <v>369</v>
+        <v>309</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -8133,7 +8115,7 @@
         <v>2</v>
       </c>
       <c r="G266" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -8156,7 +8138,7 @@
         <v>2</v>
       </c>
       <c r="G267" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -8179,7 +8161,7 @@
         <v>2</v>
       </c>
       <c r="G268" t="s">
-        <v>370</v>
+        <v>191</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -8202,7 +8184,7 @@
         <v>2</v>
       </c>
       <c r="G269" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -8225,7 +8207,7 @@
         <v>2</v>
       </c>
       <c r="G270" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -8248,7 +8230,7 @@
         <v>2</v>
       </c>
       <c r="G271" t="s">
-        <v>193</v>
+        <v>372</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -8271,7 +8253,7 @@
         <v>2</v>
       </c>
       <c r="G272" t="s">
-        <v>215</v>
+        <v>373</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -8294,7 +8276,7 @@
         <v>2</v>
       </c>
       <c r="G273" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -8317,7 +8299,7 @@
         <v>2</v>
       </c>
       <c r="G274" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -8340,7 +8322,7 @@
         <v>2</v>
       </c>
       <c r="G275" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -8363,7 +8345,7 @@
         <v>2</v>
       </c>
       <c r="G276" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -8386,7 +8368,7 @@
         <v>2</v>
       </c>
       <c r="G277" t="s">
-        <v>315</v>
+        <v>376</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -8409,7 +8391,7 @@
         <v>2</v>
       </c>
       <c r="G278" t="s">
-        <v>298</v>
+        <v>354</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -8432,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="G279" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -8455,7 +8437,7 @@
         <v>2</v>
       </c>
       <c r="G280" t="s">
-        <v>374</v>
+        <v>261</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -8478,7 +8460,7 @@
         <v>2</v>
       </c>
       <c r="G281" t="s">
-        <v>236</v>
+        <v>324</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -8501,7 +8483,7 @@
         <v>2</v>
       </c>
       <c r="G282" t="s">
-        <v>375</v>
+        <v>325</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -8524,7 +8506,7 @@
         <v>2</v>
       </c>
       <c r="G283" t="s">
-        <v>293</v>
+        <v>377</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -8547,7 +8529,7 @@
         <v>2</v>
       </c>
       <c r="G284" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -8570,7 +8552,7 @@
         <v>2</v>
       </c>
       <c r="G285" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -8593,7 +8575,7 @@
         <v>2</v>
       </c>
       <c r="G286" t="s">
-        <v>377</v>
+        <v>263</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -8616,7 +8598,7 @@
         <v>2</v>
       </c>
       <c r="G287" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -8639,7 +8621,7 @@
         <v>2</v>
       </c>
       <c r="G288" t="s">
-        <v>379</v>
+        <v>362</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -8662,7 +8644,7 @@
         <v>2</v>
       </c>
       <c r="G289" t="s">
-        <v>329</v>
+        <v>363</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -8685,7 +8667,7 @@
         <v>2</v>
       </c>
       <c r="G290" t="s">
-        <v>330</v>
+        <v>364</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -8708,7 +8690,7 @@
         <v>2</v>
       </c>
       <c r="G291" t="s">
-        <v>331</v>
+        <v>379</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -8731,7 +8713,7 @@
         <v>2</v>
       </c>
       <c r="G292" t="s">
-        <v>332</v>
+        <v>380</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -8754,7 +8736,7 @@
         <v>2</v>
       </c>
       <c r="G293" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -8777,7 +8759,7 @@
         <v>2</v>
       </c>
       <c r="G294" t="s">
-        <v>359</v>
+        <v>382</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -8800,7 +8782,7 @@
         <v>2</v>
       </c>
       <c r="G295" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -8823,7 +8805,7 @@
         <v>2</v>
       </c>
       <c r="G296" t="s">
-        <v>282</v>
+        <v>186</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -8846,7 +8828,7 @@
         <v>2</v>
       </c>
       <c r="G297" t="s">
-        <v>381</v>
+        <v>322</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -8869,7 +8851,7 @@
         <v>2</v>
       </c>
       <c r="G298" t="s">
-        <v>382</v>
+        <v>291</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -8892,7 +8874,7 @@
         <v>2</v>
       </c>
       <c r="G299" t="s">
-        <v>383</v>
+        <v>261</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -8915,7 +8897,7 @@
         <v>3</v>
       </c>
       <c r="G300" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -8938,7 +8920,7 @@
         <v>2</v>
       </c>
       <c r="G301" t="s">
-        <v>205</v>
+        <v>311</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -8961,7 +8943,7 @@
         <v>2</v>
       </c>
       <c r="G302" t="s">
-        <v>385</v>
+        <v>304</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -8984,7 +8966,7 @@
         <v>2</v>
       </c>
       <c r="G303" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -9007,7 +8989,7 @@
         <v>2</v>
       </c>
       <c r="G304" t="s">
-        <v>221</v>
+        <v>277</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -9030,7 +9012,7 @@
         <v>2</v>
       </c>
       <c r="G305" t="s">
-        <v>246</v>
+        <v>313</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -9053,7 +9035,7 @@
         <v>2</v>
       </c>
       <c r="G306" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -9076,7 +9058,7 @@
         <v>2</v>
       </c>
       <c r="G307" t="s">
-        <v>314</v>
+        <v>386</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -9099,7 +9081,7 @@
         <v>2</v>
       </c>
       <c r="G308" t="s">
-        <v>315</v>
+        <v>387</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -9237,7 +9219,7 @@
         <v>2</v>
       </c>
       <c r="G314" t="s">
-        <v>214</v>
+        <v>393</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -9260,7 +9242,7 @@
         <v>2</v>
       </c>
       <c r="G315" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -9283,7 +9265,7 @@
         <v>2</v>
       </c>
       <c r="G316" t="s">
-        <v>386</v>
+        <v>344</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -9306,7 +9288,7 @@
         <v>2</v>
       </c>
       <c r="G317" t="s">
-        <v>393</v>
+        <v>197</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -9329,7 +9311,7 @@
         <v>2</v>
       </c>
       <c r="G318" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -9352,7 +9334,7 @@
         <v>2</v>
       </c>
       <c r="G319" t="s">
-        <v>310</v>
+        <v>201</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -9375,7 +9357,7 @@
         <v>2</v>
       </c>
       <c r="G320" t="s">
-        <v>311</v>
+        <v>191</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -9398,7 +9380,7 @@
         <v>2</v>
       </c>
       <c r="G321" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -9421,7 +9403,7 @@
         <v>2</v>
       </c>
       <c r="G322" t="s">
-        <v>313</v>
+        <v>206</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -9444,7 +9426,7 @@
         <v>2</v>
       </c>
       <c r="G323" t="s">
-        <v>314</v>
+        <v>213</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -9467,7 +9449,7 @@
         <v>2</v>
       </c>
       <c r="G324" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -9490,7 +9472,7 @@
         <v>2</v>
       </c>
       <c r="G325" t="s">
-        <v>298</v>
+        <v>225</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -9513,7 +9495,7 @@
         <v>2</v>
       </c>
       <c r="G326" t="s">
-        <v>316</v>
+        <v>183</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -9536,7 +9518,7 @@
         <v>2</v>
       </c>
       <c r="G327" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -9559,7 +9541,7 @@
         <v>2</v>
       </c>
       <c r="G328" t="s">
-        <v>318</v>
+        <v>209</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -9582,7 +9564,7 @@
         <v>2</v>
       </c>
       <c r="G329" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -9605,7 +9587,7 @@
         <v>2</v>
       </c>
       <c r="G330" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -9628,7 +9610,7 @@
         <v>2</v>
       </c>
       <c r="G331" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -9651,7 +9633,7 @@
         <v>2</v>
       </c>
       <c r="G332" t="s">
-        <v>321</v>
+        <v>217</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -9674,7 +9656,7 @@
         <v>2</v>
       </c>
       <c r="G333" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -9697,7 +9679,7 @@
         <v>2</v>
       </c>
       <c r="G334" t="s">
-        <v>237</v>
+        <v>317</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -9720,7 +9702,7 @@
         <v>2</v>
       </c>
       <c r="G335" t="s">
-        <v>323</v>
+        <v>238</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -9743,7 +9725,7 @@
         <v>2</v>
       </c>
       <c r="G336" t="s">
-        <v>238</v>
+        <v>318</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -9766,7 +9748,7 @@
         <v>2</v>
       </c>
       <c r="G337" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -9789,7 +9771,7 @@
         <v>2</v>
       </c>
       <c r="G338" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -9812,7 +9794,7 @@
         <v>2</v>
       </c>
       <c r="G339" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -9835,7 +9817,7 @@
         <v>2</v>
       </c>
       <c r="G340" t="s">
-        <v>326</v>
+        <v>186</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -9858,7 +9840,7 @@
         <v>2</v>
       </c>
       <c r="G341" t="s">
-        <v>352</v>
+        <v>322</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -9881,7 +9863,7 @@
         <v>2</v>
       </c>
       <c r="G342" t="s">
-        <v>353</v>
+        <v>291</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -9904,7 +9886,7 @@
         <v>2</v>
       </c>
       <c r="G343" t="s">
-        <v>379</v>
+        <v>323</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -9927,7 +9909,7 @@
         <v>2</v>
       </c>
       <c r="G344" t="s">
-        <v>329</v>
+        <v>261</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -9950,7 +9932,7 @@
         <v>2</v>
       </c>
       <c r="G345" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -9973,7 +9955,7 @@
         <v>2</v>
       </c>
       <c r="G346" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -9996,7 +9978,7 @@
         <v>2</v>
       </c>
       <c r="G347" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -10019,7 +10001,7 @@
         <v>2</v>
       </c>
       <c r="G348" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -10042,7 +10024,7 @@
         <v>2</v>
       </c>
       <c r="G349" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -10065,7 +10047,7 @@
         <v>2</v>
       </c>
       <c r="G350" t="s">
-        <v>335</v>
+        <v>394</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -10088,7 +10070,7 @@
         <v>2</v>
       </c>
       <c r="G351" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -10111,7 +10093,7 @@
         <v>2</v>
       </c>
       <c r="G352" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -10134,7 +10116,7 @@
         <v>2</v>
       </c>
       <c r="G353" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -10157,7 +10139,7 @@
         <v>2</v>
       </c>
       <c r="G354" t="s">
-        <v>339</v>
+        <v>395</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -10180,7 +10162,7 @@
         <v>2</v>
       </c>
       <c r="G355" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -10203,7 +10185,7 @@
         <v>2</v>
       </c>
       <c r="G356" t="s">
-        <v>375</v>
+        <v>338</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -10226,7 +10208,7 @@
         <v>2</v>
       </c>
       <c r="G357" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -10249,7 +10231,7 @@
         <v>2</v>
       </c>
       <c r="G358" t="s">
-        <v>324</v>
+        <v>291</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -10272,7 +10254,7 @@
         <v>2</v>
       </c>
       <c r="G359" t="s">
-        <v>325</v>
+        <v>396</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -10295,7 +10277,7 @@
         <v>2</v>
       </c>
       <c r="G360" t="s">
-        <v>219</v>
+        <v>184</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -10318,7 +10300,7 @@
         <v>2</v>
       </c>
       <c r="G361" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -10341,7 +10323,7 @@
         <v>2</v>
       </c>
       <c r="G362" t="s">
-        <v>204</v>
+        <v>309</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -10364,7 +10346,7 @@
         <v>2</v>
       </c>
       <c r="G363" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -10387,7 +10369,7 @@
         <v>2</v>
       </c>
       <c r="G364" t="s">
-        <v>267</v>
+        <v>198</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -10410,7 +10392,7 @@
         <v>2</v>
       </c>
       <c r="G365" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -10433,7 +10415,7 @@
         <v>2</v>
       </c>
       <c r="G366" t="s">
-        <v>345</v>
+        <v>191</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -10456,7 +10438,7 @@
         <v>2</v>
       </c>
       <c r="G367" t="s">
-        <v>346</v>
+        <v>311</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -10479,7 +10461,7 @@
         <v>2</v>
       </c>
       <c r="G368" t="s">
-        <v>395</v>
+        <v>206</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -10502,7 +10484,7 @@
         <v>2</v>
       </c>
       <c r="G369" t="s">
-        <v>396</v>
+        <v>213</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -10525,7 +10507,7 @@
         <v>2</v>
       </c>
       <c r="G370" t="s">
-        <v>393</v>
+        <v>312</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -10548,7 +10530,7 @@
         <v>2</v>
       </c>
       <c r="G371" t="s">
-        <v>194</v>
+        <v>225</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -10571,7 +10553,7 @@
         <v>2</v>
       </c>
       <c r="G372" t="s">
-        <v>397</v>
+        <v>183</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -10594,7 +10576,7 @@
         <v>2</v>
       </c>
       <c r="G373" t="s">
-        <v>303</v>
+        <v>397</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -10617,7 +10599,7 @@
         <v>2</v>
       </c>
       <c r="G374" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -10640,7 +10622,7 @@
         <v>2</v>
       </c>
       <c r="G375" t="s">
-        <v>347</v>
+        <v>236</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -10663,7 +10645,7 @@
         <v>2</v>
       </c>
       <c r="G376" t="s">
-        <v>297</v>
+        <v>315</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -10686,7 +10668,7 @@
         <v>2</v>
       </c>
       <c r="G377" t="s">
-        <v>348</v>
+        <v>217</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -10709,7 +10691,7 @@
         <v>2</v>
       </c>
       <c r="G378" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -10732,7 +10714,7 @@
         <v>2</v>
       </c>
       <c r="G379" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -10755,7 +10737,7 @@
         <v>2</v>
       </c>
       <c r="G380" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -10778,7 +10760,7 @@
         <v>2</v>
       </c>
       <c r="G381" t="s">
-        <v>232</v>
+        <v>318</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -10801,7 +10783,7 @@
         <v>2</v>
       </c>
       <c r="G382" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -10824,7 +10806,7 @@
         <v>2</v>
       </c>
       <c r="G383" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -10847,7 +10829,7 @@
         <v>2</v>
       </c>
       <c r="G384" t="s">
-        <v>398</v>
+        <v>321</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -10870,7 +10852,7 @@
         <v>2</v>
       </c>
       <c r="G385" t="s">
-        <v>235</v>
+        <v>186</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -10893,7 +10875,7 @@
         <v>2</v>
       </c>
       <c r="G386" t="s">
-        <v>399</v>
+        <v>322</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -10916,7 +10898,7 @@
         <v>2</v>
       </c>
       <c r="G387" t="s">
-        <v>400</v>
+        <v>291</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -10939,7 +10921,7 @@
         <v>2</v>
       </c>
       <c r="G388" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -10962,7 +10944,7 @@
         <v>2</v>
       </c>
       <c r="G389" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -10985,7 +10967,7 @@
         <v>2</v>
       </c>
       <c r="G390" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -11008,7 +10990,7 @@
         <v>2</v>
       </c>
       <c r="G391" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -11031,7 +11013,7 @@
         <v>2</v>
       </c>
       <c r="G392" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -11054,7 +11036,7 @@
         <v>2</v>
       </c>
       <c r="G393" t="s">
-        <v>269</v>
+        <v>359</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -11077,7 +11059,7 @@
         <v>2</v>
       </c>
       <c r="G394" t="s">
-        <v>265</v>
+        <v>360</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -11100,7 +11082,7 @@
         <v>2</v>
       </c>
       <c r="G395" t="s">
-        <v>378</v>
+        <v>301</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -11123,7 +11105,7 @@
         <v>2</v>
       </c>
       <c r="G396" t="s">
-        <v>401</v>
+        <v>263</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -11146,7 +11128,7 @@
         <v>2</v>
       </c>
       <c r="G397" t="s">
-        <v>402</v>
+        <v>361</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -11169,7 +11151,7 @@
         <v>2</v>
       </c>
       <c r="G398" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -11192,7 +11174,7 @@
         <v>2</v>
       </c>
       <c r="G399" t="s">
-        <v>295</v>
+        <v>363</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -11215,7 +11197,7 @@
         <v>2</v>
       </c>
       <c r="G400" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -11238,7 +11220,7 @@
         <v>2</v>
       </c>
       <c r="G401" t="s">
-        <v>357</v>
+        <v>379</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -11261,7 +11243,7 @@
         <v>2</v>
       </c>
       <c r="G402" t="s">
-        <v>358</v>
+        <v>380</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -11284,7 +11266,7 @@
         <v>2</v>
       </c>
       <c r="G403" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -11307,7 +11289,7 @@
         <v>2</v>
       </c>
       <c r="G404" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -11330,7 +11312,7 @@
         <v>2</v>
       </c>
       <c r="G405" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -11353,7 +11335,7 @@
         <v>2</v>
       </c>
       <c r="G406" t="s">
-        <v>404</v>
+        <v>338</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -11376,7 +11358,7 @@
         <v>2</v>
       </c>
       <c r="G407" t="s">
-        <v>405</v>
+        <v>186</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -11422,7 +11404,7 @@
         <v>2</v>
       </c>
       <c r="G409" t="s">
-        <v>375</v>
+        <v>291</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -11445,7 +11427,7 @@
         <v>2</v>
       </c>
       <c r="G410" t="s">
-        <v>392</v>
+        <v>323</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -11468,7 +11450,7 @@
         <v>2</v>
       </c>
       <c r="G411" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -11491,7 +11473,7 @@
         <v>2</v>
       </c>
       <c r="G412" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -11514,7 +11496,7 @@
         <v>2</v>
       </c>
       <c r="G413" t="s">
-        <v>356</v>
+        <v>401</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -11537,7 +11519,7 @@
         <v>2</v>
       </c>
       <c r="G414" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -11560,7 +11542,7 @@
         <v>2</v>
       </c>
       <c r="G415" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -11583,7 +11565,7 @@
         <v>2</v>
       </c>
       <c r="G416" t="s">
-        <v>410</v>
+        <v>285</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -11606,7 +11588,7 @@
         <v>2</v>
       </c>
       <c r="G417" t="s">
-        <v>244</v>
+        <v>403</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -11629,7 +11611,7 @@
         <v>2</v>
       </c>
       <c r="G418" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -11652,7 +11634,7 @@
         <v>3</v>
       </c>
       <c r="G419" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -11675,7 +11657,7 @@
         <v>2</v>
       </c>
       <c r="G420" t="s">
-        <v>307</v>
+        <v>406</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -11698,7 +11680,7 @@
         <v>2</v>
       </c>
       <c r="G421" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -11721,7 +11703,7 @@
         <v>2</v>
       </c>
       <c r="G422" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -11744,7 +11726,7 @@
         <v>2</v>
       </c>
       <c r="G423" t="s">
-        <v>331</v>
+        <v>409</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -11767,7 +11749,7 @@
         <v>2</v>
       </c>
       <c r="G424" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -11790,7 +11772,7 @@
         <v>2</v>
       </c>
       <c r="G425" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -11813,7 +11795,7 @@
         <v>2</v>
       </c>
       <c r="G426" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -11836,7 +11818,7 @@
         <v>2</v>
       </c>
       <c r="G427" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -11859,7 +11841,7 @@
         <v>2</v>
       </c>
       <c r="G428" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -11882,7 +11864,7 @@
         <v>2</v>
       </c>
       <c r="G429" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -11905,7 +11887,7 @@
         <v>2</v>
       </c>
       <c r="G430" t="s">
-        <v>421</v>
+        <v>356</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -11928,7 +11910,7 @@
         <v>2</v>
       </c>
       <c r="G431" t="s">
-        <v>422</v>
+        <v>358</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -11951,7 +11933,7 @@
         <v>3</v>
       </c>
       <c r="G432" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -11974,7 +11956,7 @@
         <v>2</v>
       </c>
       <c r="G433" t="s">
-        <v>353</v>
+        <v>416</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -12020,7 +12002,7 @@
         <v>2</v>
       </c>
       <c r="G435" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -12043,7 +12025,7 @@
         <v>2</v>
       </c>
       <c r="G436" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -12066,7 +12048,7 @@
         <v>2</v>
       </c>
       <c r="G437" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -12089,7 +12071,7 @@
         <v>2</v>
       </c>
       <c r="G438" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -12112,7 +12094,7 @@
         <v>2</v>
       </c>
       <c r="G439" t="s">
-        <v>427</v>
+        <v>348</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -12135,7 +12117,7 @@
         <v>2</v>
       </c>
       <c r="G440" t="s">
-        <v>428</v>
+        <v>349</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -12158,7 +12140,7 @@
         <v>2</v>
       </c>
       <c r="G441" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -12181,7 +12163,7 @@
         <v>2</v>
       </c>
       <c r="G442" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -12204,7 +12186,7 @@
         <v>2</v>
       </c>
       <c r="G443" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -12227,7 +12209,7 @@
         <v>2</v>
       </c>
       <c r="G444" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -12250,7 +12232,7 @@
         <v>2</v>
       </c>
       <c r="G445" t="s">
-        <v>433</v>
+        <v>356</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -12273,7 +12255,7 @@
         <v>2</v>
       </c>
       <c r="G446" t="s">
-        <v>375</v>
+        <v>324</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -12296,7 +12278,7 @@
         <v>3</v>
       </c>
       <c r="G447" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -12319,7 +12301,7 @@
         <v>2</v>
       </c>
       <c r="G448" t="s">
-        <v>261</v>
+        <v>426</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -12342,7 +12324,7 @@
         <v>2</v>
       </c>
       <c r="G449" t="s">
-        <v>237</v>
+        <v>427</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -12365,7 +12347,7 @@
         <v>2</v>
       </c>
       <c r="G450" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -12388,7 +12370,7 @@
         <v>2</v>
       </c>
       <c r="G451" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -12411,7 +12393,7 @@
         <v>2</v>
       </c>
       <c r="G452" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -12434,7 +12416,7 @@
         <v>3</v>
       </c>
       <c r="G453" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -12457,7 +12439,7 @@
         <v>2</v>
       </c>
       <c r="G454" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -12480,7 +12462,7 @@
         <v>3</v>
       </c>
       <c r="G455" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -12503,7 +12485,7 @@
         <v>2</v>
       </c>
       <c r="G456" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -12526,7 +12508,7 @@
         <v>2</v>
       </c>
       <c r="G457" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -12549,7 +12531,7 @@
         <v>2</v>
       </c>
       <c r="G458" t="s">
-        <v>365</v>
+        <v>308</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -12572,7 +12554,7 @@
         <v>2</v>
       </c>
       <c r="G459" t="s">
-        <v>443</v>
+        <v>322</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -12595,7 +12577,7 @@
         <v>3</v>
       </c>
       <c r="G460" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -12618,7 +12600,7 @@
         <v>2</v>
       </c>
       <c r="G461" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -12641,7 +12623,7 @@
         <v>3</v>
       </c>
       <c r="G462" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -12664,7 +12646,7 @@
         <v>2</v>
       </c>
       <c r="G463" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -12687,7 +12669,7 @@
         <v>2</v>
       </c>
       <c r="G464" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -12710,7 +12692,7 @@
         <v>2</v>
       </c>
       <c r="G465" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -12733,7 +12715,7 @@
         <v>2</v>
       </c>
       <c r="G466" t="s">
-        <v>363</v>
+        <v>441</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -12756,7 +12738,7 @@
         <v>2</v>
       </c>
       <c r="G467" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -12779,7 +12761,7 @@
         <v>2</v>
       </c>
       <c r="G468" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
     </row>
     <row r="469" spans="1:7">
@@ -12802,7 +12784,7 @@
         <v>3</v>
       </c>
       <c r="G469" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -12825,7 +12807,7 @@
         <v>3</v>
       </c>
       <c r="G470" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -12848,7 +12830,7 @@
         <v>2</v>
       </c>
       <c r="G471" t="s">
-        <v>363</v>
+        <v>446</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -12871,7 +12853,7 @@
         <v>2</v>
       </c>
       <c r="G472" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -12894,7 +12876,7 @@
         <v>2</v>
       </c>
       <c r="G473" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -12917,7 +12899,7 @@
         <v>2</v>
       </c>
       <c r="G474" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -12940,7 +12922,7 @@
         <v>2</v>
       </c>
       <c r="G475" t="s">
-        <v>352</v>
+        <v>449</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -12963,7 +12945,7 @@
         <v>2</v>
       </c>
       <c r="G476" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -12986,7 +12968,7 @@
         <v>2</v>
       </c>
       <c r="G477" t="s">
-        <v>324</v>
+        <v>354</v>
       </c>
     </row>
     <row r="478" spans="1:7">
@@ -13009,7 +12991,7 @@
         <v>2</v>
       </c>
       <c r="G478" t="s">
-        <v>238</v>
+        <v>325</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -13032,7 +13014,7 @@
         <v>2</v>
       </c>
       <c r="G479" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -13055,7 +13037,7 @@
         <v>2</v>
       </c>
       <c r="G480" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
     </row>
     <row r="481" spans="1:7">
@@ -13078,7 +13060,7 @@
         <v>2</v>
       </c>
       <c r="G481" t="s">
-        <v>457</v>
+        <v>272</v>
       </c>
     </row>
     <row r="482" spans="1:7">
@@ -13101,7 +13083,7 @@
         <v>2</v>
       </c>
       <c r="G482" t="s">
-        <v>393</v>
+        <v>346</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -13124,7 +13106,7 @@
         <v>2</v>
       </c>
       <c r="G483" t="s">
-        <v>194</v>
+        <v>452</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -13147,7 +13129,7 @@
         <v>2</v>
       </c>
       <c r="G484" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
     </row>
     <row r="485" spans="1:7">
@@ -13193,7 +13175,7 @@
         <v>2</v>
       </c>
       <c r="G486" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
     </row>
     <row r="487" spans="1:7">
@@ -13216,7 +13198,7 @@
         <v>2</v>
       </c>
       <c r="G487" t="s">
-        <v>297</v>
+        <v>236</v>
       </c>
     </row>
     <row r="488" spans="1:7">
@@ -13239,7 +13221,7 @@
         <v>2</v>
       </c>
       <c r="G488" t="s">
-        <v>348</v>
+        <v>217</v>
       </c>
     </row>
     <row r="489" spans="1:7">
@@ -13262,7 +13244,7 @@
         <v>2</v>
       </c>
       <c r="G489" t="s">
-        <v>349</v>
+        <v>428</v>
       </c>
     </row>
     <row r="490" spans="1:7">
@@ -13285,7 +13267,7 @@
         <v>2</v>
       </c>
       <c r="G490" t="s">
-        <v>350</v>
+        <v>453</v>
       </c>
     </row>
     <row r="491" spans="1:7">
@@ -13308,7 +13290,7 @@
         <v>2</v>
       </c>
       <c r="G491" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -13331,7 +13313,7 @@
         <v>2</v>
       </c>
       <c r="G492" t="s">
-        <v>458</v>
+        <v>258</v>
       </c>
     </row>
     <row r="493" spans="1:7">
@@ -13354,7 +13336,7 @@
         <v>2</v>
       </c>
       <c r="G493" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="494" spans="1:7">
@@ -13377,7 +13359,7 @@
         <v>2</v>
       </c>
       <c r="G494" t="s">
-        <v>460</v>
+        <v>260</v>
       </c>
     </row>
     <row r="495" spans="1:7">
@@ -13400,7 +13382,7 @@
         <v>2</v>
       </c>
       <c r="G495" t="s">
-        <v>461</v>
+        <v>436</v>
       </c>
     </row>
     <row r="496" spans="1:7">
@@ -13423,7 +13405,7 @@
         <v>2</v>
       </c>
       <c r="G496" t="s">
-        <v>462</v>
+        <v>359</v>
       </c>
     </row>
     <row r="497" spans="1:7">
@@ -13446,7 +13428,7 @@
         <v>2</v>
       </c>
       <c r="G497" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="498" spans="1:7">
@@ -13469,7 +13451,7 @@
         <v>3</v>
       </c>
       <c r="G498" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -13492,7 +13474,7 @@
         <v>2</v>
       </c>
       <c r="G499" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -13515,7 +13497,7 @@
         <v>2</v>
       </c>
       <c r="G500" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="501" spans="1:7">
@@ -13538,7 +13520,7 @@
         <v>2</v>
       </c>
       <c r="G501" t="s">
-        <v>443</v>
+        <v>459</v>
       </c>
     </row>
     <row r="502" spans="1:7">
@@ -13561,7 +13543,7 @@
         <v>3</v>
       </c>
       <c r="G502" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="503" spans="1:7">
@@ -13584,7 +13566,7 @@
         <v>3</v>
       </c>
       <c r="G503" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="504" spans="1:7">
@@ -13607,7 +13589,7 @@
         <v>3</v>
       </c>
       <c r="G504" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
     </row>
     <row r="505" spans="1:7">
@@ -13630,7 +13612,7 @@
         <v>2</v>
       </c>
       <c r="G505" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="506" spans="1:7">
@@ -13653,7 +13635,7 @@
         <v>2</v>
       </c>
       <c r="G506" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="507" spans="1:7">
@@ -13676,7 +13658,7 @@
         <v>3</v>
       </c>
       <c r="G507" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -13699,7 +13681,7 @@
         <v>3</v>
       </c>
       <c r="G508" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -13722,7 +13704,7 @@
         <v>2</v>
       </c>
       <c r="G509" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -13745,7 +13727,7 @@
         <v>2</v>
       </c>
       <c r="G510" t="s">
-        <v>406</v>
+        <v>468</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -13768,7 +13750,7 @@
         <v>2</v>
       </c>
       <c r="G511" t="s">
-        <v>475</v>
+        <v>303</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -13791,7 +13773,7 @@
         <v>2</v>
       </c>
       <c r="G512" t="s">
-        <v>269</v>
+        <v>342</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -13814,7 +13796,7 @@
         <v>2</v>
       </c>
       <c r="G513" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="514" spans="1:7">
@@ -13837,7 +13819,7 @@
         <v>2</v>
       </c>
       <c r="G514" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -13860,7 +13842,7 @@
         <v>2</v>
       </c>
       <c r="G515" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -13883,7 +13865,7 @@
         <v>2</v>
       </c>
       <c r="G516" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -13906,7 +13888,7 @@
         <v>2</v>
       </c>
       <c r="G517" t="s">
-        <v>324</v>
+        <v>472</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -13929,7 +13911,7 @@
         <v>2</v>
       </c>
       <c r="G518" t="s">
-        <v>269</v>
+        <v>187</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -13952,7 +13934,7 @@
         <v>2</v>
       </c>
       <c r="G519" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -13975,7 +13957,7 @@
         <v>2</v>
       </c>
       <c r="G520" t="s">
-        <v>237</v>
+        <v>474</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -13998,7 +13980,7 @@
         <v>2</v>
       </c>
       <c r="G521" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -14021,7 +14003,7 @@
         <v>2</v>
       </c>
       <c r="G522" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -14044,7 +14026,7 @@
         <v>2</v>
       </c>
       <c r="G523" t="s">
-        <v>475</v>
+        <v>398</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -14067,7 +14049,7 @@
         <v>2</v>
       </c>
       <c r="G524" t="s">
-        <v>465</v>
+        <v>365</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -14090,7 +14072,7 @@
         <v>2</v>
       </c>
       <c r="G525" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -14113,7 +14095,7 @@
         <v>2</v>
       </c>
       <c r="G526" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -14136,7 +14118,7 @@
         <v>2</v>
       </c>
       <c r="G527" t="s">
-        <v>368</v>
+        <v>280</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -14159,7 +14141,7 @@
         <v>2</v>
       </c>
       <c r="G528" t="s">
-        <v>482</v>
+        <v>290</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -14182,7 +14164,7 @@
         <v>2</v>
       </c>
       <c r="G529" t="s">
-        <v>483</v>
+        <v>325</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -14205,7 +14187,7 @@
         <v>2</v>
       </c>
       <c r="G530" t="s">
-        <v>366</v>
+        <v>477</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -14228,7 +14210,7 @@
         <v>2</v>
       </c>
       <c r="G531" t="s">
-        <v>269</v>
+        <v>342</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -14251,7 +14233,7 @@
         <v>2</v>
       </c>
       <c r="G532" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -14274,7 +14256,7 @@
         <v>2</v>
       </c>
       <c r="G533" t="s">
-        <v>282</v>
+        <v>330</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -14297,7 +14279,7 @@
         <v>2</v>
       </c>
       <c r="G534" t="s">
-        <v>381</v>
+        <v>479</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -14320,7 +14302,7 @@
         <v>2</v>
       </c>
       <c r="G535" t="s">
-        <v>485</v>
+        <v>357</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -14343,7 +14325,7 @@
         <v>2</v>
       </c>
       <c r="G536" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -14366,7 +14348,7 @@
         <v>2</v>
       </c>
       <c r="G537" t="s">
-        <v>380</v>
+        <v>481</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -14389,7 +14371,7 @@
         <v>2</v>
       </c>
       <c r="G538" t="s">
-        <v>487</v>
+        <v>338</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -14412,7 +14394,7 @@
         <v>2</v>
       </c>
       <c r="G539" t="s">
-        <v>286</v>
+        <v>482</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -14435,7 +14417,7 @@
         <v>2</v>
       </c>
       <c r="G540" t="s">
-        <v>337</v>
+        <v>483</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -14458,7 +14440,7 @@
         <v>2</v>
       </c>
       <c r="G541" t="s">
-        <v>488</v>
+        <v>302</v>
       </c>
     </row>
     <row r="542" spans="1:7">
@@ -14481,7 +14463,7 @@
         <v>3</v>
       </c>
       <c r="G542" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -14504,7 +14486,7 @@
         <v>3</v>
       </c>
       <c r="G543" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="544" spans="1:7">
@@ -14527,7 +14509,7 @@
         <v>3</v>
       </c>
       <c r="G544" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -14550,7 +14532,7 @@
         <v>3</v>
       </c>
       <c r="G545" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -14573,7 +14555,7 @@
         <v>3</v>
       </c>
       <c r="G546" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -14596,7 +14578,7 @@
         <v>3</v>
       </c>
       <c r="G547" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -14619,7 +14601,7 @@
         <v>2</v>
       </c>
       <c r="G548" t="s">
-        <v>430</v>
+        <v>490</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -14642,7 +14624,7 @@
         <v>2</v>
       </c>
       <c r="G549" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="550" spans="1:7">
@@ -14665,7 +14647,7 @@
         <v>3</v>
       </c>
       <c r="G550" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="551" spans="1:7">
@@ -14688,7 +14670,7 @@
         <v>3</v>
       </c>
       <c r="G551" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="552" spans="1:7">
@@ -14711,7 +14693,7 @@
         <v>2</v>
       </c>
       <c r="G552" t="s">
-        <v>498</v>
+        <v>324</v>
       </c>
     </row>
     <row r="553" spans="1:7">
@@ -14734,7 +14716,7 @@
         <v>2</v>
       </c>
       <c r="G553" t="s">
-        <v>426</v>
+        <v>342</v>
       </c>
     </row>
     <row r="554" spans="1:7">
@@ -14780,7 +14762,7 @@
         <v>3</v>
       </c>
       <c r="G555" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -14803,7 +14785,7 @@
         <v>3</v>
       </c>
       <c r="G556" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="557" spans="1:7">
@@ -14826,7 +14808,7 @@
         <v>3</v>
       </c>
       <c r="G557" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="558" spans="1:7">
@@ -14849,7 +14831,7 @@
         <v>3</v>
       </c>
       <c r="G558" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="559" spans="1:7">
@@ -14872,7 +14854,7 @@
         <v>3</v>
       </c>
       <c r="G559" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="560" spans="1:7">
@@ -14895,7 +14877,7 @@
         <v>2</v>
       </c>
       <c r="G560" t="s">
-        <v>349</v>
+        <v>408</v>
       </c>
     </row>
     <row r="561" spans="1:7">
@@ -14918,7 +14900,7 @@
         <v>2</v>
       </c>
       <c r="G561" t="s">
-        <v>234</v>
+        <v>499</v>
       </c>
     </row>
     <row r="562" spans="1:7">
@@ -14941,7 +14923,7 @@
         <v>3</v>
       </c>
       <c r="G562" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -14964,7 +14946,7 @@
         <v>3</v>
       </c>
       <c r="G563" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="564" spans="1:7">
@@ -14987,7 +14969,7 @@
         <v>3</v>
       </c>
       <c r="G564" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
     </row>
     <row r="565" spans="1:7">
@@ -15010,7 +14992,7 @@
         <v>3</v>
       </c>
       <c r="G565" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="566" spans="1:7">
@@ -15033,7 +15015,7 @@
         <v>2</v>
       </c>
       <c r="G566" t="s">
-        <v>478</v>
+        <v>291</v>
       </c>
     </row>
     <row r="567" spans="1:7">
@@ -15056,7 +15038,7 @@
         <v>2</v>
       </c>
       <c r="G567" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -15102,7 +15084,7 @@
         <v>3</v>
       </c>
       <c r="G569" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="570" spans="1:7">
@@ -15125,7 +15107,7 @@
         <v>3</v>
       </c>
       <c r="G570" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="571" spans="1:7">
@@ -15148,7 +15130,7 @@
         <v>3</v>
       </c>
       <c r="G571" t="s">
-        <v>510</v>
+        <v>221</v>
       </c>
     </row>
     <row r="572" spans="1:7">
@@ -15171,7 +15153,7 @@
         <v>3</v>
       </c>
       <c r="G572" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="573" spans="1:7">
@@ -15194,7 +15176,7 @@
         <v>3</v>
       </c>
       <c r="G573" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="574" spans="1:7">
@@ -15217,7 +15199,7 @@
         <v>3</v>
       </c>
       <c r="G574" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="575" spans="1:7">
@@ -15240,7 +15222,7 @@
         <v>3</v>
       </c>
       <c r="G575" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -15263,7 +15245,7 @@
         <v>3</v>
       </c>
       <c r="G576" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="577" spans="1:7">
@@ -15286,7 +15268,7 @@
         <v>3</v>
       </c>
       <c r="G577" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="578" spans="1:7">
@@ -15309,7 +15291,7 @@
         <v>3</v>
       </c>
       <c r="G578" t="s">
-        <v>517</v>
+        <v>245</v>
       </c>
     </row>
     <row r="579" spans="1:7">
@@ -15332,7 +15314,7 @@
         <v>3</v>
       </c>
       <c r="G579" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="580" spans="1:7">
@@ -15355,7 +15337,7 @@
         <v>2</v>
       </c>
       <c r="G580" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="581" spans="1:7">
@@ -15378,7 +15360,7 @@
         <v>2</v>
       </c>
       <c r="G581" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="582" spans="1:7">
@@ -15401,7 +15383,7 @@
         <v>3</v>
       </c>
       <c r="G582" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="583" spans="1:7">
@@ -15424,7 +15406,7 @@
         <v>3</v>
       </c>
       <c r="G583" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="584" spans="1:7">
@@ -15447,7 +15429,7 @@
         <v>3</v>
       </c>
       <c r="G584" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="585" spans="1:7">
@@ -15470,7 +15452,7 @@
         <v>3</v>
       </c>
       <c r="G585" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="586" spans="1:7">
@@ -15493,7 +15475,7 @@
         <v>3</v>
       </c>
       <c r="G586" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="587" spans="1:7">
@@ -15516,7 +15498,7 @@
         <v>3</v>
       </c>
       <c r="G587" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="588" spans="1:7">
@@ -15539,7 +15521,7 @@
         <v>3</v>
       </c>
       <c r="G588" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="589" spans="1:7">
@@ -15562,7 +15544,7 @@
         <v>3</v>
       </c>
       <c r="G589" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="590" spans="1:7">
@@ -15585,7 +15567,7 @@
         <v>2</v>
       </c>
       <c r="G590" t="s">
-        <v>529</v>
+        <v>261</v>
       </c>
     </row>
     <row r="591" spans="1:7">
@@ -15608,7 +15590,7 @@
         <v>2</v>
       </c>
       <c r="G591" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
     </row>
     <row r="592" spans="1:7">
@@ -15631,7 +15613,7 @@
         <v>2</v>
       </c>
       <c r="G592" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
     </row>
     <row r="593" spans="1:7">
@@ -15654,7 +15636,7 @@
         <v>2</v>
       </c>
       <c r="G593" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
     </row>
     <row r="594" spans="1:7">
@@ -15677,7 +15659,7 @@
         <v>2</v>
       </c>
       <c r="G594" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="595" spans="1:7">
@@ -15700,7 +15682,7 @@
         <v>2</v>
       </c>
       <c r="G595" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="596" spans="1:7">
@@ -15723,7 +15705,7 @@
         <v>2</v>
       </c>
       <c r="G596" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
     </row>
     <row r="597" spans="1:7">
@@ -15746,7 +15728,7 @@
         <v>2</v>
       </c>
       <c r="G597" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -15769,7 +15751,7 @@
         <v>2</v>
       </c>
       <c r="G598" t="s">
-        <v>336</v>
+        <v>529</v>
       </c>
     </row>
     <row r="599" spans="1:7">
@@ -15792,7 +15774,7 @@
         <v>2</v>
       </c>
       <c r="G599" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="600" spans="1:7">
@@ -15815,7 +15797,7 @@
         <v>2</v>
       </c>
       <c r="G600" t="s">
-        <v>238</v>
+        <v>531</v>
       </c>
     </row>
     <row r="601" spans="1:7">
@@ -15838,7 +15820,7 @@
         <v>2</v>
       </c>
       <c r="G601" t="s">
-        <v>365</v>
+        <v>532</v>
       </c>
     </row>
     <row r="602" spans="1:7">
@@ -15861,7 +15843,7 @@
         <v>3</v>
       </c>
       <c r="G602" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
     </row>
     <row r="603" spans="1:7">
@@ -15884,7 +15866,7 @@
         <v>3</v>
       </c>
       <c r="G603" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="604" spans="1:7">
@@ -15907,7 +15889,7 @@
         <v>3</v>
       </c>
       <c r="G604" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="605" spans="1:7">
@@ -15930,7 +15912,7 @@
         <v>3</v>
       </c>
       <c r="G605" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="606" spans="1:7">
@@ -15953,7 +15935,7 @@
         <v>2</v>
       </c>
       <c r="G606" t="s">
-        <v>541</v>
+        <v>350</v>
       </c>
     </row>
     <row r="607" spans="1:7">
@@ -15976,7 +15958,7 @@
         <v>2</v>
       </c>
       <c r="G607" t="s">
-        <v>377</v>
+        <v>536</v>
       </c>
     </row>
     <row r="608" spans="1:7">
@@ -15999,7 +15981,7 @@
         <v>3</v>
       </c>
       <c r="G608" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="609" spans="1:7">
@@ -16022,7 +16004,7 @@
         <v>3</v>
       </c>
       <c r="G609" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="610" spans="1:7">
@@ -16045,7 +16027,7 @@
         <v>3</v>
       </c>
       <c r="G610" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="611" spans="1:7">
@@ -16068,7 +16050,7 @@
         <v>3</v>
       </c>
       <c r="G611" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="612" spans="1:7">
@@ -16091,7 +16073,7 @@
         <v>2</v>
       </c>
       <c r="G612" t="s">
-        <v>238</v>
+        <v>414</v>
       </c>
     </row>
     <row r="613" spans="1:7">
@@ -16114,7 +16096,7 @@
         <v>2</v>
       </c>
       <c r="G613" t="s">
-        <v>546</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
